--- a/inst/extdata/pathway.xlsx
+++ b/inst/extdata/pathway.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/nils_mechtel_bwedu_de/Documents/Uni/HiWi/HiWi COS/Package - MetAlyzer/MetAlyzer/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="14_{27B912F6-2174-904D-BD36-C5C3DF831B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8DEF189-04AE-414B-BDD4-729656C8D12A}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="14_{27B912F6-2174-904D-BD36-C5C3DF831B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A3B0D0-3DDC-D240-8159-B0F5994ECF13}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="271">
   <si>
     <t>Node1</t>
   </si>
@@ -972,7 +972,13 @@
     <t>(see "Node-Preview")</t>
   </si>
   <si>
+    <t>green</t>
+  </si>
+  <si>
     <t>blue</t>
+  </si>
+  <si>
+    <t>yellow</t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1189,29 +1195,51 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1232,6 +1260,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1250,6 +1285,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1268,6 +1310,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1286,6 +1335,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1304,6 +1359,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1350,24 +1464,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1394,30 +1490,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1581,7 +1653,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{24B1222A-25B2-7C4B-A8D5-8A9BC6AFD8F1}" type="CELLRANGE">
+                    <a:fld id="{57F1FCF4-6596-6246-A840-BA0D3C87164C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1615,7 +1687,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{927BFBA4-033C-534B-8D57-C87C0A1C555E}" type="CELLRANGE">
+                    <a:fld id="{93E45478-4132-3342-B176-DF7800B59AB4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1649,7 +1721,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C015D081-F49F-7446-A18C-EAEB5F701A06}" type="CELLRANGE">
+                    <a:fld id="{674074F2-EAF0-5F44-A651-23357E48AD19}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1683,7 +1755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4333C2D-F637-B249-898F-996C4BEB9050}" type="CELLRANGE">
+                    <a:fld id="{8FFE574E-AAA8-D34F-85A1-2933B2157E1D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1717,7 +1789,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0263EBDB-F773-C846-BACB-6BE9E6BA32C6}" type="CELLRANGE">
+                    <a:fld id="{BEF6630F-1F54-DF40-BD35-6A773DEF12F7}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1751,7 +1823,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7DC5EEE7-956E-7E42-82E5-F79099ADD19F}" type="CELLRANGE">
+                    <a:fld id="{E20B1289-85C5-A74D-8337-9E67D77ECBD9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1785,7 +1857,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E029AF1-955E-7146-B6A2-8731A5843453}" type="CELLRANGE">
+                    <a:fld id="{52A15B05-F6BA-C841-97F6-4A944FF77579}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1819,7 +1891,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0E8D5C4-B3F6-3D4E-B3DC-8BAF9EEFC087}" type="CELLRANGE">
+                    <a:fld id="{4D018D79-9A1E-D244-BEBD-67CD11553585}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1853,7 +1925,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8D97423F-0361-B14C-9263-5236FE481FBD}" type="CELLRANGE">
+                    <a:fld id="{67E9BD2B-43F3-1941-80C3-6E55DFF75DBC}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1887,7 +1959,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C68CFBC1-8507-AC41-B579-89DAAA897F1F}" type="CELLRANGE">
+                    <a:fld id="{25D34412-1611-E040-9B2D-318BEFE4890D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1921,7 +1993,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F69F4DD-B0B6-B040-AF89-AB3B742AE806}" type="CELLRANGE">
+                    <a:fld id="{6DDA746E-7C01-6F43-8266-684E388EA350}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1955,7 +2027,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74514D66-7626-4542-99D4-EDD8CD1A4920}" type="CELLRANGE">
+                    <a:fld id="{C3D4CF67-CAFF-814B-9D5F-09EE242A83F7}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1989,7 +2061,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7998397-FD80-7C4C-8A90-EAC82609F8A1}" type="CELLRANGE">
+                    <a:fld id="{747C8B2A-83E6-6E47-A07A-F8ED0A238C36}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2023,7 +2095,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{706900E5-084E-1440-B4EC-7D504DE4DC60}" type="CELLRANGE">
+                    <a:fld id="{1CC1DD7F-83AE-5B48-8E0B-857CA22D06F4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2057,7 +2129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AC27EE7-CA8B-6D49-ABDB-5A9D5A282FD9}" type="CELLRANGE">
+                    <a:fld id="{B98D228E-4FF4-B04A-8318-F02129877843}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2091,7 +2163,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D80C86B8-9197-DA49-AD31-B601BD4E626D}" type="CELLRANGE">
+                    <a:fld id="{E3B2769B-73B6-974F-AF0C-D4D4BCF419C7}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2125,7 +2197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8FB1F4C-33A4-AB4E-AF4C-DA4A8BD8129C}" type="CELLRANGE">
+                    <a:fld id="{820C2948-2A6F-2548-B932-84868A3FCA9D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2159,7 +2231,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A46F5D6-3992-B148-89B6-D588FB11987D}" type="CELLRANGE">
+                    <a:fld id="{CA3D6546-02A1-6741-AA1C-C3C63500C37A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2193,7 +2265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{726601D8-C069-E84C-9A74-A61380B71AE6}" type="CELLRANGE">
+                    <a:fld id="{08C64C63-189F-B94D-966D-E787E38B4958}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2227,7 +2299,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17271F58-6644-1946-BB9A-D6ACEEC2E63E}" type="CELLRANGE">
+                    <a:fld id="{49E3AE7D-B757-C14B-B64D-CD8CEDCC22E6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2261,7 +2333,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31CE4754-DD88-4142-A10C-18481B1EC8B4}" type="CELLRANGE">
+                    <a:fld id="{C65C6290-39AA-F74E-947F-3FC644A7D302}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2295,7 +2367,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1724A348-3EC2-0849-A6F0-70E223AB7CBA}" type="CELLRANGE">
+                    <a:fld id="{6B295421-C507-8C49-96B1-6EFBA76EAD0B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2329,7 +2401,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E740E036-CCD0-054F-BC12-80A075040563}" type="CELLRANGE">
+                    <a:fld id="{E2D1A5AE-BC2A-4542-BC09-D90480F9B096}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2363,7 +2435,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{261C24A3-009A-FC4A-97C6-EBD10F4A88EA}" type="CELLRANGE">
+                    <a:fld id="{66792C97-17C6-C649-ACBA-44AD9B71806B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2397,7 +2469,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{976F6948-3AA7-FC49-A107-FB3E11E934C6}" type="CELLRANGE">
+                    <a:fld id="{2B39DCEA-16C2-4B49-A652-D911904A0F4B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2431,7 +2503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBAC4EDB-B828-B046-8B99-C2DAA42CDD72}" type="CELLRANGE">
+                    <a:fld id="{747DE8D8-3856-9D41-A4D1-5BF3878D598F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2465,7 +2537,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D3207DE4-84C0-B846-A7CB-923E58756787}" type="CELLRANGE">
+                    <a:fld id="{F7227919-6235-2146-95A4-67DE1C8B9F8D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2499,7 +2571,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B6EE9D7-31EE-B543-9650-29A2378D3C98}" type="CELLRANGE">
+                    <a:fld id="{DBCD915F-924F-274C-AA3F-B4256EC0E1E8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2533,7 +2605,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A93DC8A-F8DB-8C41-8755-291CE59C25DF}" type="CELLRANGE">
+                    <a:fld id="{FF9B28FB-9DC4-1E45-9FAF-AA9DCCBF3266}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2567,7 +2639,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3DAB4A13-33F0-E64B-8E9F-B75FB78C3E83}" type="CELLRANGE">
+                    <a:fld id="{51DC1F5E-F9E5-0645-B6AE-AAF8148EDAD9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2601,7 +2673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7473A1D6-5935-5D43-8AD1-22F4D1E304D9}" type="CELLRANGE">
+                    <a:fld id="{7FACE789-EDC9-5041-B584-3033D5CDFBE0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2635,7 +2707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD7D293E-42DB-BC4D-BB2C-898ED9264661}" type="CELLRANGE">
+                    <a:fld id="{EC98A258-AFF7-FD4D-BB43-1723B33D0455}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2669,7 +2741,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29B3E3CA-1B5E-384B-8F4D-A2D0720FE63A}" type="CELLRANGE">
+                    <a:fld id="{DC0E23BB-625C-D143-B269-632CEA67D777}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2703,7 +2775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7AF1AE7-9AC4-9447-831A-FFACE6675CA3}" type="CELLRANGE">
+                    <a:fld id="{C08A53AD-FD2D-B644-A395-245C0EB73389}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2737,7 +2809,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C5C360EF-BF36-EA45-9CA2-79FAE4B161E2}" type="CELLRANGE">
+                    <a:fld id="{82EEAE4B-F668-9841-8523-517A7FABED18}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2771,7 +2843,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{010CE95C-4992-184C-9331-7CE879DDCD3B}" type="CELLRANGE">
+                    <a:fld id="{4B7D317F-9779-ED45-8914-7C02C36DCEA2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2805,7 +2877,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF464755-C49E-8548-B628-F4D7CD5D2ACE}" type="CELLRANGE">
+                    <a:fld id="{74BB7FE2-A9FE-4B41-AEE6-B0EB18EE3A7A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2839,7 +2911,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{83C40D01-EB2B-7E42-95A7-1AD13898C11B}" type="CELLRANGE">
+                    <a:fld id="{2800855F-0033-D44D-A5CE-739863753286}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2873,7 +2945,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11AF1391-A0D2-804A-BD78-45EFEBB34A27}" type="CELLRANGE">
+                    <a:fld id="{F358EC84-45EF-164D-B336-622F0654FD3B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2907,7 +2979,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3E19276-D1CD-B140-BA85-13609A612BD5}" type="CELLRANGE">
+                    <a:fld id="{A3FB129C-ECE6-4242-A871-32179F00CD5C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2941,7 +3013,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61D702AD-945E-7647-827F-E97579EE90FE}" type="CELLRANGE">
+                    <a:fld id="{52B2AE57-1BE8-4F49-A160-B94C8B727155}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2975,7 +3047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6205C487-79D6-C04A-8866-F2CD16B9FFCF}" type="CELLRANGE">
+                    <a:fld id="{C8418D8E-8BC5-8642-A05F-87AF74F67A02}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3009,7 +3081,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2F503FB7-54D6-E34B-9BE6-ED74CFC63A60}" type="CELLRANGE">
+                    <a:fld id="{5E8B9A99-3F60-B047-B573-770742B17FFF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3043,7 +3115,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA2986E3-E7E4-6648-BB49-C2D8557D456F}" type="CELLRANGE">
+                    <a:fld id="{DB96211E-0F80-EE41-A351-C3D2CEA87D42}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3077,7 +3149,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECFC7D28-4305-B24E-8D82-75666412C09F}" type="CELLRANGE">
+                    <a:fld id="{9D259E6F-3B3A-4A43-957E-FD78C66FB109}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3111,7 +3183,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA9992B3-94D5-4D49-BA43-9F68AB50079D}" type="CELLRANGE">
+                    <a:fld id="{65F3A416-53CE-374F-A8C4-E05905A56E35}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3145,7 +3217,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5289219-D746-704E-9884-1685145631EA}" type="CELLRANGE">
+                    <a:fld id="{5309CF94-20ED-B549-BA6E-34B100147572}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3179,7 +3251,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70C04AB6-22E3-8643-A7C0-6BDEB74AE68C}" type="CELLRANGE">
+                    <a:fld id="{2DBE5140-3977-E148-BEDA-E120213B838F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3213,7 +3285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B575C122-6162-854F-B06B-696A38BA9A3D}" type="CELLRANGE">
+                    <a:fld id="{C6A17989-4CBD-6B47-86B2-D3769588621E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3247,7 +3319,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{600DC156-A42A-444C-8345-96E68C09E7E2}" type="CELLRANGE">
+                    <a:fld id="{673365ED-5769-B94E-8E80-CAE39026AD63}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3281,7 +3353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{389B474A-D88F-8646-A0FD-4EA0F1C5C459}" type="CELLRANGE">
+                    <a:fld id="{D689CB88-5716-ED4C-9584-60F3E5CC68E0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3315,7 +3387,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96597D62-F480-A14A-B4AF-410D0DFC27C7}" type="CELLRANGE">
+                    <a:fld id="{928EB4B0-D548-2440-BE05-D2787579D34F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3349,7 +3421,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B42AF042-BADB-2947-B84A-B4BC77491639}" type="CELLRANGE">
+                    <a:fld id="{429BADAC-05E1-E04D-A82D-F7894C44D048}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3383,7 +3455,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58107223-CFEB-5248-8B91-428AAE7E99EC}" type="CELLRANGE">
+                    <a:fld id="{8F47AC9A-73AA-754D-B2A5-6CB41622F7A0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3417,7 +3489,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A269EDC-82F7-874E-A288-9EB97763E56A}" type="CELLRANGE">
+                    <a:fld id="{B98396C0-29C3-674B-BF2D-012CFE17AA43}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3451,7 +3523,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3ABDD427-234A-F94A-8FBD-60CA1323792F}" type="CELLRANGE">
+                    <a:fld id="{05F37634-FF26-D246-BEBC-55688B50CE41}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3485,7 +3557,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA66BD80-349D-B84E-A58B-A2C9679C3E5D}" type="CELLRANGE">
+                    <a:fld id="{736130DC-694C-A64A-B719-D0E701D3371A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3519,7 +3591,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF6FBA0B-9AF0-EF41-B9F9-42AF036CA078}" type="CELLRANGE">
+                    <a:fld id="{586B8FD5-C046-4945-B17C-2353F02C8BCE}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3553,7 +3625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7895C09-838D-6548-A1FA-535FFF0E217B}" type="CELLRANGE">
+                    <a:fld id="{05D20759-BDA7-5F47-8071-1E5FF8B5D6AF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3587,7 +3659,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDE314D1-CB61-CD4B-BB34-159AC1E695A7}" type="CELLRANGE">
+                    <a:fld id="{2B1C8A9E-27E4-4049-B6A6-C84C5CE2CE66}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3621,7 +3693,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30AD8FFB-0675-144B-AD2C-1ADEE2C5C9C6}" type="CELLRANGE">
+                    <a:fld id="{7D1D1234-844D-8143-8974-0D77F757406F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3655,7 +3727,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9D225B7-B997-4E4D-BD90-473BD8827D5D}" type="CELLRANGE">
+                    <a:fld id="{F95F1D46-4C77-4A4B-A9CE-BFBC359AE4ED}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3689,7 +3761,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F95311B-CEC0-0C44-97ED-9DCE0A513D91}" type="CELLRANGE">
+                    <a:fld id="{96403559-A528-E347-B5C5-47B9BF42E016}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3723,7 +3795,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B829DA90-5333-9247-9E45-34153371A106}" type="CELLRANGE">
+                    <a:fld id="{BB2A8869-ED1D-B14A-9921-166B1FC86D43}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3757,7 +3829,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99901406-6640-C64C-847D-CD6A2F6AFB63}" type="CELLRANGE">
+                    <a:fld id="{DB5EDEA9-B93A-6347-B385-B03B88847BE1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3791,7 +3863,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB0E29AF-F21D-7549-949F-76C04935FAB7}" type="CELLRANGE">
+                    <a:fld id="{F693C364-D105-AD4F-B6D0-D55D97BF386A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3825,7 +3897,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{86B423CE-A164-FD4C-B443-2B35183D0C02}" type="CELLRANGE">
+                    <a:fld id="{1C87EA35-B470-434B-9586-0BFC2553DFE4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3859,7 +3931,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{540A4353-3651-9849-A89F-1D3025A0FBB7}" type="CELLRANGE">
+                    <a:fld id="{08E319A9-85CF-9F40-A4AB-385290F33F39}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3893,7 +3965,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A57F785-10BB-B14B-9701-14FC26C2D30C}" type="CELLRANGE">
+                    <a:fld id="{4FAB6E18-DA03-E54C-9FAB-20E47BEB689E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3927,7 +3999,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E30E3285-D45E-ED4C-B6F8-F0720A058EBE}" type="CELLRANGE">
+                    <a:fld id="{CD3CE004-4A31-8945-98C8-9D19E8952967}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3961,7 +4033,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EF07394-08A2-E443-B0BC-6F851F02D060}" type="CELLRANGE">
+                    <a:fld id="{21817A6A-5C2B-274F-87F0-666113D8626F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3995,7 +4067,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E988524F-CE77-6843-AC92-513A2CE439B4}" type="CELLRANGE">
+                    <a:fld id="{2CDD4F3E-A23D-E948-9BDF-0F059F8C35C4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4029,7 +4101,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6D58B26D-0478-3640-9F58-DDA3CBD84F21}" type="CELLRANGE">
+                    <a:fld id="{7188A45E-6C87-5842-9644-AAFFD372BA75}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4063,7 +4135,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB813D08-8991-1749-B9C7-CEBD730E9FB8}" type="CELLRANGE">
+                    <a:fld id="{2156D724-BB2D-A648-94B2-9F4C0B5345B9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4097,7 +4169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{543106BA-53B9-A04C-B052-1803AFFDDED6}" type="CELLRANGE">
+                    <a:fld id="{CA10D773-598D-5E47-B0C9-9B321F3C7854}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4131,7 +4203,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE915F4B-67CC-384C-82FE-E6B4AA8068AB}" type="CELLRANGE">
+                    <a:fld id="{7B5426B5-D971-CA47-BC4E-F10A2C79CD79}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4165,7 +4237,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55DB5198-3D15-F64A-9215-6F64CE282DDA}" type="CELLRANGE">
+                    <a:fld id="{DE1E944A-3DB8-9746-AF17-24071335FFB9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4199,7 +4271,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A55815EA-C570-8149-94B2-878755F601BB}" type="CELLRANGE">
+                    <a:fld id="{8FF58AEE-6627-564E-8E2F-DB986444A5DB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4233,7 +4305,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DCFD9B8-FA06-0549-85AC-5E1F6A2BA371}" type="CELLRANGE">
+                    <a:fld id="{1B79A09E-1FA1-2148-942D-B956B93AF83B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4267,7 +4339,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE29C6D7-BB02-9144-B814-FA633C31BDAE}" type="CELLRANGE">
+                    <a:fld id="{DD380540-D743-F74F-8499-1ADC074A8E83}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4301,7 +4373,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1F407B76-678A-CA46-980C-58B66520DFCB}" type="CELLRANGE">
+                    <a:fld id="{AB8851B8-3ED7-E240-BB84-6A90DC104C37}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4335,7 +4407,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{909969BD-C62F-844C-A508-4E071FAE77DA}" type="CELLRANGE">
+                    <a:fld id="{AF6396A9-371D-6C47-A134-C9EFF1C01305}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4369,7 +4441,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8990723D-1724-A147-BC74-8EFC3B82BD80}" type="CELLRANGE">
+                    <a:fld id="{97091A35-4DEF-534B-B56E-AE27D2CDEB90}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4403,7 +4475,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0C4D1354-4D9F-614E-87B5-74A493E168FC}" type="CELLRANGE">
+                    <a:fld id="{3499F04C-FEF0-1D45-87EA-636CF8D453F8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4437,7 +4509,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE9CF1E5-43A7-BF48-9CC9-31BABD3BCCDF}" type="CELLRANGE">
+                    <a:fld id="{52F33A88-D717-9F4F-8B55-A21F20F61926}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4471,7 +4543,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D8388B21-07D4-104A-BFCC-ED856A39332D}" type="CELLRANGE">
+                    <a:fld id="{F753BE07-3D75-CF47-9AA8-55B4F807CB4B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4505,7 +4577,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{268F4B90-F889-874D-A2F3-AEF1172E0031}" type="CELLRANGE">
+                    <a:fld id="{9BE6A650-7D1E-374D-86F0-85F1AA105CF0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4539,7 +4611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA32FCF2-3AA6-E341-BDD8-E43467951CD6}" type="CELLRANGE">
+                    <a:fld id="{E375987C-6806-C54F-9FFD-C9900F8720FA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4573,7 +4645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7543A9E2-4F92-8443-87D5-6F11A3928536}" type="CELLRANGE">
+                    <a:fld id="{1A7A7B1A-5BA2-4B4E-BEA3-5F369288CDD6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4607,7 +4679,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E3BBAB9-90CC-2C44-AFBD-FF6E78BABE22}" type="CELLRANGE">
+                    <a:fld id="{6289563D-DE90-0E4B-BF5C-F2795BC7F9F5}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4641,7 +4713,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{432C0755-C86A-8E49-B8F0-47A018FE57EC}" type="CELLRANGE">
+                    <a:fld id="{A28783A3-1DDA-2A4F-BAFA-9D2B828C2562}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4675,7 +4747,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE827A30-ABC8-4947-AAF5-4D779B56000C}" type="CELLRANGE">
+                    <a:fld id="{5E60091F-4065-2E43-BF09-9E14CF8D741E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4709,7 +4781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{22BCF363-4A8A-6F49-8180-E0B636BECE0B}" type="CELLRANGE">
+                    <a:fld id="{5E769935-4DB9-C741-B4ED-52F9024B9AC3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4743,7 +4815,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BEC6965-05DB-3340-8922-669438A14180}" type="CELLRANGE">
+                    <a:fld id="{B24099E6-EF1D-CD46-AD83-4227570816BD}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4777,7 +4849,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA35DF38-13FF-B34C-8361-CBE1BC86D8D8}" type="CELLRANGE">
+                    <a:fld id="{0FCEB455-7DB5-2440-83C1-B8083E53B723}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4811,7 +4883,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8BB56DD1-727F-CF49-B66A-AAA2EB68F8A7}" type="CELLRANGE">
+                    <a:fld id="{A550C979-37E6-554E-8BD8-2EAFF635A59D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4845,7 +4917,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61A6BE4D-216E-6D43-B0B2-DAAAB4186B2F}" type="CELLRANGE">
+                    <a:fld id="{2CCACEC6-1CB4-4446-95F5-2405608D01E6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4879,7 +4951,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E60A07AB-B1BB-F542-94B5-F031BF7F1F15}" type="CELLRANGE">
+                    <a:fld id="{669ECCED-6714-DB42-8A22-347DAAD710EA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4913,7 +4985,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A595C46-B9C6-DE4A-8E44-49032E6FDFEC}" type="CELLRANGE">
+                    <a:fld id="{B98CF4E3-F79F-3346-B0E5-ABC319713B15}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4947,7 +5019,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C02749F-5781-F54D-81E7-0DB3CC1D5595}" type="CELLRANGE">
+                    <a:fld id="{0B2A60CB-A2E8-7B46-9D2B-B341865BC15E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4981,7 +5053,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9BCA117-324D-A244-AC32-DFD08990D052}" type="CELLRANGE">
+                    <a:fld id="{1010F5C5-3B0D-AD43-A379-9AF5C387A338}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5015,7 +5087,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD2971B5-00AE-B642-AE42-C6729B0FA002}" type="CELLRANGE">
+                    <a:fld id="{E62893C5-648C-CA43-9B27-E8FE74898DBE}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5049,7 +5121,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57C29A6E-7FD5-5940-8BA5-2D3976B64A40}" type="CELLRANGE">
+                    <a:fld id="{73657C0E-0234-3442-8FB2-3EF6013497F1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5083,7 +5155,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72C0498C-DC4D-5F44-A453-60E6BEAEF703}" type="CELLRANGE">
+                    <a:fld id="{A207D091-53FF-4E4B-9CB0-89638429CEC6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5117,7 +5189,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{120F8C58-7313-2241-B622-6881C1723AD9}" type="CELLRANGE">
+                    <a:fld id="{7A476C88-3406-754C-94A9-97B155D7AF99}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5151,7 +5223,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2A1ED08-BE83-D94D-9C16-272BA853DC1B}" type="CELLRANGE">
+                    <a:fld id="{023EAB59-615B-2D44-99E0-915BA79AFE82}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5185,7 +5257,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91C72BF6-E841-4244-A51E-6F5C1D8C50F2}" type="CELLRANGE">
+                    <a:fld id="{4D744BD8-E7AB-C44F-904B-D70030504F48}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5219,7 +5291,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5AE3403B-B420-844E-85FF-AC4B89E7674C}" type="CELLRANGE">
+                    <a:fld id="{3814117D-2A97-8046-A811-CA7A9FF37E16}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5253,7 +5325,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED97E99F-DC41-A843-B4EE-0863E9FCDDA6}" type="CELLRANGE">
+                    <a:fld id="{9205664C-84A1-C442-8BFF-A7394D01C570}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5287,7 +5359,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9298219E-A5F6-F842-A43D-7DAEB258945E}" type="CELLRANGE">
+                    <a:fld id="{6A65D187-7A6B-7243-A8C9-A22385C09B3D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5321,7 +5393,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E3DC3DC-D09F-0E41-AE6F-D0CF5A872250}" type="CELLRANGE">
+                    <a:fld id="{7A8CDA84-6CD1-5E4A-B2C4-49FDD68F243D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5355,7 +5427,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8C6C8FE-A7EE-F443-8A92-7BE6E6754326}" type="CELLRANGE">
+                    <a:fld id="{C8A01A29-4248-C44A-B379-7BFEE23C1823}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5389,7 +5461,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55EFD645-6342-D943-861B-CA5DF2934A86}" type="CELLRANGE">
+                    <a:fld id="{2C0A5E3F-480B-244C-AA7D-0C075463B08D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5423,7 +5495,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{427D0810-CD8A-BD42-8BD0-61F410F370E9}" type="CELLRANGE">
+                    <a:fld id="{410AEF7C-ABF6-AC42-859F-9C6406D6099F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5457,7 +5529,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5977D54-8884-C244-8286-6ED31412B548}" type="CELLRANGE">
+                    <a:fld id="{505B24BA-761E-D746-B3D4-F159EBDB65FA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5491,7 +5563,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D6159C58-025C-5742-8E43-DC2C0A6CA385}" type="CELLRANGE">
+                    <a:fld id="{D5F56443-8C7E-BF43-B95D-2EB6F6DD76D9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5525,7 +5597,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14006D77-8139-8A4D-BF70-2D192B2D2B3F}" type="CELLRANGE">
+                    <a:fld id="{AA23B1EF-091A-6C44-955B-67FF262F4803}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5559,7 +5631,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17ED5769-5427-DE46-945A-B525287031F6}" type="CELLRANGE">
+                    <a:fld id="{5DC77709-C9A2-6C4D-8147-6834B224EE4B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5593,7 +5665,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6FCA077E-5441-A94E-946D-4582D113EDB6}" type="CELLRANGE">
+                    <a:fld id="{E8FB96C6-E655-8545-8559-55C256BA5F0A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5627,7 +5699,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57EDCDB0-69B2-A54E-AE67-521246BD46C8}" type="CELLRANGE">
+                    <a:fld id="{F9D224E5-0626-1845-A1F0-52680DA06D90}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5661,7 +5733,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{861C558F-8538-F84C-BEF4-B619A4F20DC8}" type="CELLRANGE">
+                    <a:fld id="{5711EBFC-4FF7-A343-A06D-6F999BAC9A22}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5695,7 +5767,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E25E1BDD-B6F8-E647-94C8-2C2E234EF41C}" type="CELLRANGE">
+                    <a:fld id="{436DBF26-3C1D-4542-8BCB-FEAAD0BB4983}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5729,7 +5801,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23DE2014-73D6-E046-BF72-73A296B2AEC7}" type="CELLRANGE">
+                    <a:fld id="{D15FA5C5-6DCA-6F49-83FB-99CEB0E9B295}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5763,7 +5835,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{79969C06-2D86-0E4E-ACAE-98234C5DD86D}" type="CELLRANGE">
+                    <a:fld id="{14A77DF9-D784-B743-851B-7FC2A01875D1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5797,7 +5869,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE5ADA81-B6BF-C74C-80D9-5E202C53A40D}" type="CELLRANGE">
+                    <a:fld id="{03C39C31-314D-ED43-A7F6-53E072ADD114}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5831,7 +5903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA7FB04B-608A-0E4D-AAB7-477EB583EF1F}" type="CELLRANGE">
+                    <a:fld id="{679FB330-0DA3-4148-AEC4-B7656F93692A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5865,7 +5937,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{628801BC-5A6D-FE4E-A056-AEC8789A4821}" type="CELLRANGE">
+                    <a:fld id="{40754459-4F31-034B-8D1F-DA7D8F4D9118}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5899,7 +5971,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5371392B-1B9B-8A4E-BEDA-85D563D2D7B1}" type="CELLRANGE">
+                    <a:fld id="{30A8F29A-5CD5-3C4F-9F72-FE74DBC8EAAD}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5933,7 +6005,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA2DA985-F30C-F34F-9B41-6CF0D3B3DBE8}" type="CELLRANGE">
+                    <a:fld id="{896C659F-4A19-3A40-B460-57E7C0EAAF0C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5967,7 +6039,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B9F175A7-93B6-C84A-936C-33B916FC56AB}" type="CELLRANGE">
+                    <a:fld id="{64E4B4B1-39AA-F44E-ACD0-741025A2E395}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6001,7 +6073,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DABABAEF-16A7-0746-8C31-D7D0A0C13C59}" type="CELLRANGE">
+                    <a:fld id="{96A1AF12-38D5-4D4E-9BF8-D5C16B14D780}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6035,7 +6107,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{309FBD58-EE69-ED41-9B4F-321862250F59}" type="CELLRANGE">
+                    <a:fld id="{E9A827F6-C3C9-F349-9147-38979644667E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6069,7 +6141,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FE5FE85-6CEE-014D-9B2A-7DBB5AAADAFB}" type="CELLRANGE">
+                    <a:fld id="{1AB7521B-C365-D040-AC9F-DACB97991522}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6103,7 +6175,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5ECD974-93B3-C04E-990B-E6CD0FD86473}" type="CELLRANGE">
+                    <a:fld id="{1521845C-F582-9544-AA12-3C912DC66F11}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6137,7 +6209,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0049B2F-7140-D940-80BE-04F6AC47D52F}" type="CELLRANGE">
+                    <a:fld id="{EA7FDAF8-C8DF-0548-913B-FE55BDDAC9EB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6171,7 +6243,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB4090CE-50A3-E449-84A1-BA3D18E6ABE4}" type="CELLRANGE">
+                    <a:fld id="{F4DCE9E1-EDF5-D243-85B3-2F23EA5E6153}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6205,7 +6277,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B97D9289-F8DC-B846-B10D-11229C20D387}" type="CELLRANGE">
+                    <a:fld id="{047242E7-937D-804E-AD26-E765A525FA95}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6239,7 +6311,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12DC35E1-3796-5244-A09E-45AAA3745FC0}" type="CELLRANGE">
+                    <a:fld id="{A1A92245-9999-2642-A5C5-60C88A48532F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6273,7 +6345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7F3131A0-84CE-164E-A0E0-C7BFB0AA6A9F}" type="CELLRANGE">
+                    <a:fld id="{27231E5B-9DD1-7747-95C6-19E08814D64B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6307,7 +6379,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{391C1C6E-AF87-CC44-B1B8-0950D5DCA01D}" type="CELLRANGE">
+                    <a:fld id="{1614BC42-D4AE-7E46-8FF0-0737A9B0627E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6341,7 +6413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECE634AE-170A-1C4D-ADFD-8551EBDD5FA7}" type="CELLRANGE">
+                    <a:fld id="{C6FB4EED-6A37-6449-B73F-2DF985FD04A3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6375,7 +6447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{875A6CFE-A635-8243-8051-B2CCA1F561BE}" type="CELLRANGE">
+                    <a:fld id="{CBA390EB-CE45-D546-BAC8-357E181F5D9F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6409,7 +6481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EB8E1BA-3F36-814E-B674-A12C708B3E46}" type="CELLRANGE">
+                    <a:fld id="{923484D4-6D87-8046-9537-2AC6A1B72264}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6443,7 +6515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4618D14-7D6E-5B44-A617-A85B6F064DDB}" type="CELLRANGE">
+                    <a:fld id="{6AC3755A-8A2A-554B-9904-61B3327A6601}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8054,7 +8126,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{32AE09AF-6E35-E740-8EB9-E4B92FC01E04}" type="CELLRANGE">
+                    <a:fld id="{C13C0C8D-7B43-6F48-969C-D47769F8D0CC}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8088,7 +8160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B20F7ACC-4658-C841-85EB-346962E8B244}" type="CELLRANGE">
+                    <a:fld id="{462D3965-0A03-7F44-921D-F7BCEB702A8B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8122,7 +8194,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6F359DF-9E91-6A4B-8859-EC9FDE24526C}" type="CELLRANGE">
+                    <a:fld id="{B44DB428-CA0F-F145-BEB6-DCD1F8798621}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8156,7 +8228,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F4BF51D-5262-DA43-B8EC-BC83014FC688}" type="CELLRANGE">
+                    <a:fld id="{EAC229FB-17D5-444E-AE78-6A1FB5DF3C98}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8190,7 +8262,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66EC63A1-D5B5-AD41-8D4C-E0269A1DAEE3}" type="CELLRANGE">
+                    <a:fld id="{AB6963FF-5ADC-9043-BE29-3097B0B5CEFF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8224,7 +8296,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECCC0C0E-A285-C943-969D-E11E1247B536}" type="CELLRANGE">
+                    <a:fld id="{25E21472-9538-2840-AC21-3D0DB529A9E6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8258,7 +8330,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B42047AA-7E56-3E4E-AFB1-4307DBD50F62}" type="CELLRANGE">
+                    <a:fld id="{88D7478A-8DA3-AD49-8E1E-5687DE373FD2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8292,7 +8364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E8A11D0-4D3F-F145-90AF-61626A32BC8C}" type="CELLRANGE">
+                    <a:fld id="{C309B317-0E37-D143-8C31-CC56E2843014}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8326,7 +8398,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6EF366E5-C4FC-5745-A7F4-25345A000BCC}" type="CELLRANGE">
+                    <a:fld id="{C406FC92-0F62-7242-B5CE-8132F25F9242}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8360,7 +8432,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A60F42D-C8BC-A145-9EF3-231016FEF703}" type="CELLRANGE">
+                    <a:fld id="{174B6778-9B9F-6F43-9E57-7BC380B3F644}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8394,7 +8466,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00597855-4066-0345-A307-CAA81397628D}" type="CELLRANGE">
+                    <a:fld id="{CECB134C-B0D9-4941-BC51-EC3B2BDE6874}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8428,7 +8500,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A75175E9-5F38-6A4A-B6FA-8A962386CF8B}" type="CELLRANGE">
+                    <a:fld id="{D5E5022E-7C39-CD4A-9077-42857ACA6E90}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -9558,23 +9630,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9ECE0968-8858-4848-96DC-2D8866FCBBA0}" name="Pathways" displayName="Pathways" ref="C7:G19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9ECE0968-8858-4848-96DC-2D8866FCBBA0}" name="Pathways" displayName="Pathways" ref="C7:G19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="0">
   <autoFilter ref="C7:G19" xr:uid="{9ECE0968-8858-4848-96DC-2D8866FCBBA0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{066DDBAD-A6AD-8646-8459-1A71B1FC4725}" name="Pathway" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{066DDBAD-A6AD-8646-8459-1A71B1FC4725}" name="Pathway" dataDxfId="5">
       <calculatedColumnFormula>D8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A704F2E-A2F2-9742-9885-C585B7FAD273}" name="Label" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B56E32DF-4C5F-5B46-ACCA-D5546C847CD8}" name="x" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9650AEDB-07E3-F045-9DAF-7D13C9F52BA5}" name="y" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{80FB3F51-8706-9A48-91A5-4E4B4BA1ABF7}" name="Color" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{6A704F2E-A2F2-9742-9885-C585B7FAD273}" name="Label" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B56E32DF-4C5F-5B46-ACCA-D5546C847CD8}" name="x" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9650AEDB-07E3-F045-9DAF-7D13C9F52BA5}" name="y" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{80FB3F51-8706-9A48-91A5-4E4B4BA1ABF7}" name="Color" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B44ACB61-3C96-BA49-A158-016A4C830120}" name="Metabolites" displayName="Metabolites" ref="B27:G176" totalsRowShown="0" headerRowDxfId="14" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B44ACB61-3C96-BA49-A158-016A4C830120}" name="Metabolites" displayName="Metabolites" ref="B27:G176" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="B27:G176" xr:uid="{B44ACB61-3C96-BA49-A158-016A4C830120}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B28:G176">
     <sortCondition descending="1" ref="B29:B176"/>
@@ -9582,17 +9654,17 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4C87A1F2-C84C-D249-A8AA-5FC6E933D916}" name="Pathway"/>
     <tableColumn id="2" xr3:uid="{D8E4BB4D-01C8-0B4B-A6E7-4D643ADA51C5}" name="Metabolites"/>
-    <tableColumn id="3" xr3:uid="{C46474A9-396E-0D4B-84F7-FE6C6C325195}" name="Label" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{6B51A87E-DD94-7F4C-B534-ABE286E5F44C}" name="x"/>
-    <tableColumn id="5" xr3:uid="{E02CA605-EAFC-1148-A9A6-93209615314A}" name="y"/>
-    <tableColumn id="6" xr3:uid="{A116D9D3-C501-C845-9E2B-8ED54D070C69}" name="Shape"/>
+    <tableColumn id="3" xr3:uid="{C46474A9-396E-0D4B-84F7-FE6C6C325195}" name="Label" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{6B51A87E-DD94-7F4C-B534-ABE286E5F44C}" name="x" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{E02CA605-EAFC-1148-A9A6-93209615314A}" name="y" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A116D9D3-C501-C845-9E2B-8ED54D070C69}" name="Shape" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BE5291A-D3D6-574B-8BDF-9220BF9A0D6C}" name="Connections" displayName="Connections" ref="Y27:AA175" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BE5291A-D3D6-574B-8BDF-9220BF9A0D6C}" name="Connections" displayName="Connections" ref="Y27:AA175" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="14">
   <autoFilter ref="Y27:AA175" xr:uid="{2BE5291A-D3D6-574B-8BDF-9220BF9A0D6C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{89095999-8849-3345-93DE-3BF06477C049}" name="Node1"/>
@@ -9890,8 +9962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48467D80-D495-7249-A853-0BA2330C68EC}">
   <dimension ref="B1:AA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9965,209 +10037,213 @@
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="23" t="str">
+      <c r="C8" s="28" t="str">
         <f>D8</f>
         <v>Bile Acids</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="29">
         <v>10</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="29">
         <v>100</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>268</v>
+      <c r="G8" s="29" t="s">
+        <v>269</v>
       </c>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="22" t="str">
+      <c r="C9" s="28" t="str">
         <f t="shared" ref="C9:C19" si="0">D9</f>
         <v>Eicosanoid Synthesis</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="29">
         <v>65</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="29">
         <v>170</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="23" t="str">
+      <c r="C10" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Hormones</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="29">
         <v>70</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="29">
         <v>115</v>
       </c>
-      <c r="G10" s="23"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="22" t="str">
+      <c r="C11" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Beta Oxidation</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="29">
         <v>125</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="29">
         <v>125</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="23" t="str">
+      <c r="C12" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Choline/Betaine metabolism</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="29">
         <v>150</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="29">
         <v>165</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="22" t="str">
+      <c r="C13" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Lysine Metabolism</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="29">
         <v>175</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="29">
         <v>105</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="23" t="str">
+      <c r="C14" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Poly Amines</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="29">
         <v>20</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="29">
         <v>75</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="22" t="str">
+      <c r="C15" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Urea Cycle</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="29">
         <v>80</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="29">
         <v>84</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="23" t="str">
+      <c r="C16" s="28" t="str">
         <f t="shared" si="0"/>
         <v>TCA Cycle</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="29">
         <v>140</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="29">
         <v>70</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="29" t="s">
+        <v>270</v>
+      </c>
       <c r="H16" s="22"/>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C17" s="22" t="str">
+      <c r="C17" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Glutamate Metabolism</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="29">
         <v>190</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="29">
         <v>30</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C18" s="23" t="str">
+      <c r="C18" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Monoamine Metabolism</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="29">
         <v>90</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="29">
         <v>5</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C19" s="22" t="str">
+      <c r="C19" s="28" t="str">
         <f t="shared" si="0"/>
         <v>Indole/Tryptophane Metabolism</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="29">
         <v>40</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="29">
         <v>10</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
@@ -10285,13 +10361,13 @@
       <c r="D28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="23">
         <v>10</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="23">
         <v>180</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="23" t="s">
         <v>135</v>
       </c>
       <c r="Y28" s="3" t="s">
@@ -10312,13 +10388,13 @@
       <c r="D29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="24">
         <v>20</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="24">
         <v>180</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y29" t="s">
@@ -10341,13 +10417,13 @@
       <c r="D30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="25">
         <v>10</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="25">
         <v>170</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y30" s="3" t="s">
@@ -10368,13 +10444,13 @@
       <c r="D31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="24">
         <v>20</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="24">
         <v>165</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y31" t="s">
@@ -10397,13 +10473,13 @@
       <c r="D32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="25">
         <v>1</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="25">
         <v>165</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y32" s="3" t="s">
@@ -10426,13 +10502,13 @@
       <c r="D33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="24">
         <v>10</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="24">
         <v>155</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y33" t="s">
@@ -10455,13 +10531,13 @@
       <c r="D34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="25">
         <v>1</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="25">
         <v>150</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y34" s="3" t="s">
@@ -10484,13 +10560,13 @@
       <c r="D35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="24">
         <v>9</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="24">
         <v>145</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y35" t="s">
@@ -10511,13 +10587,13 @@
       <c r="D36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="25">
         <v>1</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="25">
         <v>140</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y36" s="3" t="s">
@@ -10540,13 +10616,13 @@
       <c r="D37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="24">
         <v>20</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="24">
         <v>140</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y37" t="s">
@@ -10569,13 +10645,13 @@
       <c r="D38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="25">
         <v>1</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="25">
         <v>130</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y38" s="3" t="s">
@@ -10598,13 +10674,13 @@
       <c r="D39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="24">
         <v>20</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="24">
         <v>133</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y39" t="s">
@@ -10627,13 +10703,13 @@
       <c r="D40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="25">
         <v>20</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="25">
         <v>120</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y40" s="3" t="s">
@@ -10656,13 +10732,13 @@
       <c r="D41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="24">
         <v>10</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="24">
         <v>130</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y41" t="s">
@@ -10685,13 +10761,13 @@
       <c r="D42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="25">
         <v>10</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="25">
         <v>120</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y42" s="3" t="s">
@@ -10714,13 +10790,13 @@
       <c r="D43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="24">
         <v>10</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="24">
         <v>110</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y43" t="s">
@@ -10743,13 +10819,13 @@
       <c r="D44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="25">
         <v>20</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="25">
         <v>100</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y44" s="3" t="s">
@@ -10770,13 +10846,13 @@
       <c r="D45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="24">
         <v>40</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="24">
         <v>100</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y45" t="s">
@@ -10797,13 +10873,13 @@
       <c r="D46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="25">
         <v>110</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="25">
         <v>110</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y46" s="3" t="s">
@@ -10824,13 +10900,13 @@
       <c r="D47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="24">
         <v>45</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="24">
         <v>105</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y47" t="s">
@@ -10851,13 +10927,13 @@
       <c r="D48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="25">
         <v>55</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="25">
         <v>105</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y48" s="3" t="s">
@@ -10876,13 +10952,13 @@
       <c r="D49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="24">
         <v>90</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="24">
         <v>115</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y49" t="s">
@@ -10903,13 +10979,13 @@
       <c r="D50" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="25">
         <v>90</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="25">
         <v>125</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y50" s="3" t="s">
@@ -10930,13 +11006,13 @@
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="24">
         <v>55</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="24">
         <v>140</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y51" t="s">
@@ -10957,13 +11033,13 @@
       <c r="D52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="25">
         <v>55</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="25">
         <v>120</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y52" s="3" t="s">
@@ -10984,13 +11060,13 @@
       <c r="D53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="24">
         <v>130</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="24">
         <v>115</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y53" t="s">
@@ -11011,13 +11087,13 @@
       <c r="D54" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="25">
         <v>110</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="25">
         <v>115</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y54" s="3" t="s">
@@ -11038,13 +11114,13 @@
       <c r="D55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="24">
         <v>110</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="24">
         <v>125</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y55" t="s">
@@ -11065,13 +11141,13 @@
       <c r="D56" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="25">
         <v>90</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="25">
         <v>150</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y56" s="3" t="s">
@@ -11092,13 +11168,13 @@
       <c r="D57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="24">
         <v>70</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="24">
         <v>150</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y57" t="s">
@@ -11119,13 +11195,13 @@
       <c r="D58" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="25">
         <v>70</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="25">
         <v>140</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y58" s="3" t="s">
@@ -11146,13 +11222,13 @@
       <c r="D59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="24">
         <v>90</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="24">
         <v>140</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y59" t="s">
@@ -11173,13 +11249,13 @@
       <c r="D60" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="25">
         <v>110</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="25">
         <v>140</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y60" s="3" t="s">
@@ -11200,13 +11276,13 @@
       <c r="D61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="24">
         <v>125</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="24">
         <v>150</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y61" t="s">
@@ -11225,13 +11301,13 @@
       <c r="D62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E62" s="25">
         <v>130</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="25">
         <v>95</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y62" s="3" t="s">
@@ -11250,13 +11326,13 @@
       <c r="D63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="24">
         <v>140</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="24">
         <v>100</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y63" t="s">
@@ -11275,13 +11351,13 @@
       <c r="D64" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="25">
         <v>140</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="25">
         <v>120</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y64" s="3" t="s">
@@ -11302,13 +11378,13 @@
       <c r="D65" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="24">
         <v>145</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="24">
         <v>125</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y65" t="s">
@@ -11329,13 +11405,13 @@
       <c r="D66" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="25">
         <v>150</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="25">
         <v>120</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y66" s="3" t="s">
@@ -11354,13 +11430,13 @@
       <c r="D67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="24">
         <v>140</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="24">
         <v>130</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y67" t="s">
@@ -11379,13 +11455,13 @@
       <c r="D68" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="25">
         <v>140</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="25">
         <v>140</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y68" s="3" t="s">
@@ -11406,13 +11482,13 @@
       <c r="D69" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="24">
         <v>120</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="24">
         <v>165</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y69" t="s">
@@ -11431,13 +11507,13 @@
       <c r="D70" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="25">
         <v>120</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="25">
         <v>172</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y70" s="3" t="s">
@@ -11456,13 +11532,13 @@
       <c r="D71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="24">
         <v>120</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="24">
         <v>180</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y71" t="s">
@@ -11481,13 +11557,13 @@
       <c r="D72" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="25">
         <v>90</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="25">
         <v>180</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y72" s="3" t="s">
@@ -11508,13 +11584,13 @@
       <c r="D73" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="24">
         <v>100</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="24">
         <v>170</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y73" t="s">
@@ -11535,13 +11611,13 @@
       <c r="D74" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="25">
         <v>90</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="25">
         <v>160</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y74" s="3" t="s">
@@ -11562,13 +11638,13 @@
       <c r="D75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="24">
         <v>90</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="24">
         <v>170</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y75" t="s">
@@ -11589,13 +11665,13 @@
       <c r="D76" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="25">
         <v>80</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="25">
         <v>170</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y76" s="3" t="s">
@@ -11616,13 +11692,13 @@
       <c r="D77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="24">
         <v>150</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="24">
         <v>130</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y77" t="s">
@@ -11643,13 +11719,13 @@
       <c r="D78" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="5">
+      <c r="E78" s="25">
         <v>160</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F78" s="25">
         <v>130</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y78" s="3" t="s">
@@ -11670,13 +11746,13 @@
       <c r="D79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="24">
         <v>170</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="24">
         <v>120</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y79" t="s">
@@ -11697,13 +11773,13 @@
       <c r="D80" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E80" s="25">
         <v>180</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F80" s="25">
         <v>130</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y80" s="3" t="s">
@@ -11724,13 +11800,13 @@
       <c r="D81" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="24">
         <v>160</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="24">
         <v>140</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y81" t="s">
@@ -11751,13 +11827,13 @@
       <c r="D82" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="5">
+      <c r="E82" s="25">
         <v>160</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F82" s="25">
         <v>155</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y82" s="3" t="s">
@@ -11778,13 +11854,13 @@
       <c r="D83" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="24">
         <v>175</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="24">
         <v>160</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y83" t="s">
@@ -11805,13 +11881,13 @@
       <c r="D84" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E84" s="5">
+      <c r="E84" s="25">
         <v>180</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F84" s="25">
         <v>155</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y84" s="3" t="s">
@@ -11832,13 +11908,13 @@
       <c r="D85" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="24">
         <v>150</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="24">
         <v>140</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y85" t="s">
@@ -11859,13 +11935,13 @@
       <c r="D86" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E86" s="5">
+      <c r="E86" s="25">
         <v>155</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F86" s="25">
         <v>145</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G86" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y86" s="3" t="s">
@@ -11886,13 +11962,13 @@
       <c r="D87" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="24">
         <v>140</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="24">
         <v>150</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y87" t="s">
@@ -11913,13 +11989,13 @@
       <c r="D88" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E88" s="5">
+      <c r="E88" s="25">
         <v>145</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F88" s="25">
         <v>110</v>
       </c>
-      <c r="G88" s="5" t="s">
+      <c r="G88" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y88" s="3" t="s">
@@ -11940,13 +12016,13 @@
       <c r="D89" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="24">
         <v>150</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="24">
         <v>100</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y89" t="s">
@@ -11967,13 +12043,13 @@
       <c r="D90" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E90" s="25">
         <v>155</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F90" s="25">
         <v>110</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G90" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y90" s="3" t="s">
@@ -11994,13 +12070,13 @@
       <c r="D91" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="24">
         <v>155</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="24">
         <v>95</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y91" t="s">
@@ -12021,13 +12097,13 @@
       <c r="D92" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E92" s="25">
         <v>170</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F92" s="25">
         <v>100</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="G92" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y92" s="3" t="s">
@@ -12048,13 +12124,13 @@
       <c r="D93" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="24">
         <v>180</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="24">
         <v>90</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y93" t="s">
@@ -12075,13 +12151,13 @@
       <c r="D94" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="5">
+      <c r="E94" s="25">
         <v>180</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F94" s="25">
         <v>100</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="G94" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y94" s="3" t="s">
@@ -12095,18 +12171,20 @@
       </c>
     </row>
     <row r="95" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="24">
         <v>140</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="24">
         <v>85</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="G95" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y95" t="s">
@@ -12120,20 +12198,22 @@
       </c>
     </row>
     <row r="96" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B96" s="5"/>
+      <c r="B96" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C96" s="5" t="s">
         <v>170</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E96" s="25">
         <v>150.6</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F96" s="25">
         <v>80.599999999999994</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="G96" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y96" s="3" t="s">
@@ -12147,18 +12227,20 @@
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="24">
         <v>155</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="24">
         <v>70</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G97" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y97" t="s">
@@ -12172,18 +12254,20 @@
       </c>
     </row>
     <row r="98" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B98" s="5"/>
+      <c r="B98" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E98" s="25">
         <v>150.6</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="25">
         <v>59.4</v>
       </c>
-      <c r="G98" s="5" t="s">
+      <c r="G98" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y98" s="3" t="s">
@@ -12197,20 +12281,22 @@
       </c>
     </row>
     <row r="99" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C99" s="2" t="s">
         <v>171</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="24">
         <v>140</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="24">
         <v>55</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G99" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y99" t="s">
@@ -12224,18 +12310,20 @@
       </c>
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B100" s="5"/>
+      <c r="B100" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E100" s="5">
+      <c r="E100" s="25">
         <v>129.4</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="25">
         <v>59.4</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G100" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y100" s="3" t="s">
@@ -12249,18 +12337,20 @@
       </c>
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="24">
         <v>125</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="24">
         <v>70</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y101" t="s">
@@ -12274,18 +12364,20 @@
       </c>
     </row>
     <row r="102" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B102" s="5"/>
+      <c r="B102" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E102" s="25">
         <v>129.4</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="25">
         <v>80.599999999999994</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y102" s="3" t="s">
@@ -12306,13 +12398,13 @@
       <c r="D103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="24">
         <v>100</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="24">
         <v>80</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="G103" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y103" t="s">
@@ -12333,13 +12425,13 @@
       <c r="D104" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E104" s="5">
+      <c r="E104" s="25">
         <v>105</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F104" s="25">
         <v>75</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="G104" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y104" s="3" t="s">
@@ -12360,13 +12452,13 @@
       <c r="D105" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="24">
         <v>100</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="24">
         <v>90</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="G105" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y105" t="s">
@@ -12380,20 +12472,22 @@
       </c>
     </row>
     <row r="106" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B106" s="5"/>
+      <c r="B106" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="C106" s="5" t="s">
         <v>175</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E106" s="25">
         <v>80</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="25">
         <v>60</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y106" s="3" t="s">
@@ -12414,13 +12508,13 @@
       <c r="D107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="24">
         <v>82.5</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="24">
         <v>70</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="G107" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y107" t="s">
@@ -12434,18 +12528,20 @@
       </c>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B108" s="5"/>
+      <c r="B108" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E108" s="25">
         <v>80</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="25">
         <v>75</v>
       </c>
-      <c r="G108" s="5" t="s">
+      <c r="G108" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y108" s="3" t="s">
@@ -12466,13 +12562,13 @@
       <c r="D109" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="24">
         <v>77.5</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="24">
         <v>70</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="G109" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y109" t="s">
@@ -12491,13 +12587,13 @@
       <c r="D110" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E110" s="25">
         <v>75</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F110" s="25">
         <v>55</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="G110" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y110" s="3" t="s">
@@ -12518,13 +12614,13 @@
       <c r="D111" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="24">
         <v>70</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="24">
         <v>55</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y111" t="s">
@@ -12538,20 +12634,22 @@
       </c>
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B112" s="5"/>
+      <c r="B112" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="C112" s="5" t="s">
         <v>176</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E112" s="5">
+      <c r="E112" s="25">
         <v>70</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F112" s="25">
         <v>80</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="G112" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y112" s="3" t="s">
@@ -12565,20 +12663,22 @@
       </c>
     </row>
     <row r="113" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="C113" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="24">
         <v>90</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="24">
         <v>80</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y113" t="s">
@@ -12599,13 +12699,13 @@
       <c r="D114" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E114" s="25">
         <v>65</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F114" s="25">
         <v>65</v>
       </c>
-      <c r="G114" s="5" t="s">
+      <c r="G114" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y114" s="3" t="s">
@@ -12626,13 +12726,13 @@
       <c r="D115" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="24">
         <v>55</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="24">
         <v>75</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y115" t="s">
@@ -12653,13 +12753,13 @@
       <c r="D116" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E116" s="5">
+      <c r="E116" s="25">
         <v>55</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F116" s="25">
         <v>80</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G116" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y116" s="3" t="s">
@@ -12680,13 +12780,13 @@
       <c r="D117" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="24">
         <v>55</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="24">
         <v>85</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y117" t="s">
@@ -12705,13 +12805,13 @@
       <c r="D118" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E118" s="25">
         <v>165</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F118" s="25">
         <v>60</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="G118" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y118" s="3" t="s">
@@ -12732,13 +12832,13 @@
       <c r="D119" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="24">
         <v>160</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="24">
         <v>40</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G119" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y119" t="s">
@@ -12759,13 +12859,13 @@
       <c r="D120" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="25">
         <v>150</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="25">
         <v>40</v>
       </c>
-      <c r="G120" s="5" t="s">
+      <c r="G120" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y120" s="3" t="s">
@@ -12786,13 +12886,13 @@
       <c r="D121" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="24">
         <v>160</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="24">
         <v>20</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="G121" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y121" t="s">
@@ -12813,13 +12913,13 @@
       <c r="D122" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="25">
         <v>160</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="25">
         <v>10</v>
       </c>
-      <c r="G122" s="5" t="s">
+      <c r="G122" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y122" s="3" t="s">
@@ -12840,13 +12940,13 @@
       <c r="D123" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="24">
         <v>180</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="24">
         <v>20</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="G123" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y123" t="s">
@@ -12867,13 +12967,13 @@
       <c r="D124" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="25">
         <v>165</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="25">
         <v>30</v>
       </c>
-      <c r="G124" s="5" t="s">
+      <c r="G124" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y124" s="3" t="s">
@@ -12894,13 +12994,13 @@
       <c r="D125" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="24">
         <v>180</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="24">
         <v>40</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="G125" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y125" t="s">
@@ -12921,13 +13021,13 @@
       <c r="D126" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="25">
         <v>195</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="25">
         <v>40</v>
       </c>
-      <c r="G126" s="5" t="s">
+      <c r="G126" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y126" s="3" t="s">
@@ -12948,13 +13048,13 @@
       <c r="D127" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="24">
         <v>165</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="24">
         <v>50</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y127" t="s">
@@ -12975,13 +13075,13 @@
       <c r="D128" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E128" s="25">
         <v>180</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F128" s="25">
         <v>50</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G128" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y128" s="3" t="s">
@@ -13002,13 +13102,13 @@
       <c r="D129" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="24">
         <v>180</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="24">
         <v>60</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="G129" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y129" t="s">
@@ -13029,13 +13129,13 @@
       <c r="D130" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="25">
         <v>180</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="25">
         <v>70</v>
       </c>
-      <c r="G130" s="5" t="s">
+      <c r="G130" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y130" s="3" t="s">
@@ -13056,13 +13156,13 @@
       <c r="D131" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="24">
         <v>145</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="24">
         <v>30</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="G131" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y131" t="s">
@@ -13083,13 +13183,13 @@
       <c r="D132" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E132" s="5">
+      <c r="E132" s="25">
         <v>150</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F132" s="25">
         <v>20</v>
       </c>
-      <c r="G132" s="5" t="s">
+      <c r="G132" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y132" s="3" t="s">
@@ -13110,13 +13210,13 @@
       <c r="D133" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="24">
         <v>140</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="24">
         <v>20</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="G133" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y133" t="s">
@@ -13137,13 +13237,13 @@
       <c r="D134" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E134" s="25">
         <v>140</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F134" s="25">
         <v>10</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="G134" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y134" s="3" t="s">
@@ -13164,13 +13264,13 @@
       <c r="D135" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="24">
         <v>130</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="24">
         <v>40</v>
       </c>
-      <c r="G135" s="2" t="s">
+      <c r="G135" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y135" t="s">
@@ -13191,13 +13291,13 @@
       <c r="D136" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E136" s="25">
         <v>130</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F136" s="25">
         <v>30</v>
       </c>
-      <c r="G136" s="5" t="s">
+      <c r="G136" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y136" s="3" t="s">
@@ -13218,13 +13318,13 @@
       <c r="D137" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="24">
         <v>135</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="24">
         <v>35</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="G137" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y137" t="s">
@@ -13245,13 +13345,13 @@
       <c r="D138" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="E138" s="5">
+      <c r="E138" s="25">
         <v>120</v>
       </c>
-      <c r="F138" s="5">
+      <c r="F138" s="25">
         <v>35</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="G138" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y138" s="3" t="s">
@@ -13272,13 +13372,13 @@
       <c r="D139" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="24">
         <v>105</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="24">
         <v>60</v>
       </c>
-      <c r="G139" s="2" t="s">
+      <c r="G139" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y139" t="s">
@@ -13299,13 +13399,13 @@
       <c r="D140" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E140" s="5">
+      <c r="E140" s="25">
         <v>105</v>
       </c>
-      <c r="F140" s="5">
+      <c r="F140" s="25">
         <v>65</v>
       </c>
-      <c r="G140" s="5" t="s">
+      <c r="G140" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y140" s="3" t="s">
@@ -13326,13 +13426,13 @@
       <c r="D141" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="24">
         <v>115</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="24">
         <v>50</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="G141" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y141" t="s">
@@ -13353,13 +13453,13 @@
       <c r="D142" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="E142" s="5">
+      <c r="E142" s="25">
         <v>105</v>
       </c>
-      <c r="F142" s="5">
+      <c r="F142" s="25">
         <v>40</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="G142" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y142" s="3" t="s">
@@ -13380,13 +13480,13 @@
       <c r="D143" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="24">
         <v>120</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="24">
         <v>20</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="G143" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y143" t="s">
@@ -13407,13 +13507,13 @@
       <c r="D144" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E144" s="5">
+      <c r="E144" s="25">
         <v>105</v>
       </c>
-      <c r="F144" s="5">
+      <c r="F144" s="25">
         <v>10</v>
       </c>
-      <c r="G144" s="5" t="s">
+      <c r="G144" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y144" s="3" t="s">
@@ -13434,13 +13534,13 @@
       <c r="D145" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="24">
         <v>90</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="24">
         <v>60</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="G145" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y145" t="s">
@@ -13461,13 +13561,13 @@
       <c r="D146" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E146" s="5">
+      <c r="E146" s="25">
         <v>90</v>
       </c>
-      <c r="F146" s="5">
+      <c r="F146" s="25">
         <v>50</v>
       </c>
-      <c r="G146" s="5" t="s">
+      <c r="G146" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y146" s="3" t="s">
@@ -13486,13 +13586,13 @@
       <c r="D147" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="24">
         <v>90</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147" s="24">
         <v>40</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="G147" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y147" t="s">
@@ -13511,13 +13611,13 @@
       <c r="D148" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E148" s="5">
+      <c r="E148" s="25">
         <v>90</v>
       </c>
-      <c r="F148" s="5">
+      <c r="F148" s="25">
         <v>20</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="G148" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y148" s="3" t="s">
@@ -13538,13 +13638,13 @@
       <c r="D149" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="24">
         <v>40</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="24">
         <v>70</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="G149" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y149" t="s">
@@ -13563,13 +13663,13 @@
       <c r="D150" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E150" s="5">
+      <c r="E150" s="25">
         <v>40</v>
       </c>
-      <c r="F150" s="5">
+      <c r="F150" s="25">
         <v>65</v>
       </c>
-      <c r="G150" s="5" t="s">
+      <c r="G150" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y150" s="3" t="s">
@@ -13590,13 +13690,13 @@
       <c r="D151" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="24">
         <v>40</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="24">
         <v>60</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="G151" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y151" t="s">
@@ -13617,13 +13717,13 @@
       <c r="D152" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E152" s="5">
+      <c r="E152" s="25">
         <v>40</v>
       </c>
-      <c r="F152" s="5">
+      <c r="F152" s="25">
         <v>50</v>
       </c>
-      <c r="G152" s="5" t="s">
+      <c r="G152" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y152" s="3" t="s">
@@ -13644,13 +13744,13 @@
       <c r="D153" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="24">
         <v>55</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="24">
         <v>50</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="G153" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y153" t="s">
@@ -13671,13 +13771,13 @@
       <c r="D154" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="25">
         <v>40</v>
       </c>
-      <c r="F154" s="5">
+      <c r="F154" s="25">
         <v>40</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="G154" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y154" s="3" t="s">
@@ -13696,13 +13796,13 @@
       <c r="D155" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="24">
         <v>40</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="24">
         <v>20</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="G155" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y155" t="s">
@@ -13723,13 +13823,13 @@
       <c r="D156" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E156" s="5">
+      <c r="E156" s="25">
         <v>30</v>
       </c>
-      <c r="F156" s="5">
+      <c r="F156" s="25">
         <v>50</v>
       </c>
-      <c r="G156" s="5" t="s">
+      <c r="G156" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y156" s="3" t="s">
@@ -13750,13 +13850,13 @@
       <c r="D157" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="24">
         <v>20</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="24">
         <v>60</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="G157" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y157" t="s">
@@ -13777,13 +13877,13 @@
       <c r="D158" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E158" s="5">
+      <c r="E158" s="25">
         <v>20</v>
       </c>
-      <c r="F158" s="5">
+      <c r="F158" s="25">
         <v>50</v>
       </c>
-      <c r="G158" s="5" t="s">
+      <c r="G158" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y158" s="3" t="s">
@@ -13804,13 +13904,13 @@
       <c r="D159" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="24">
         <v>20</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="24">
         <v>70</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="G159" s="24" t="s">
         <v>135</v>
       </c>
       <c r="Y159" t="s">
@@ -13831,13 +13931,13 @@
       <c r="D160" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E160" s="5">
+      <c r="E160" s="25">
         <v>51</v>
       </c>
-      <c r="F160" s="5">
+      <c r="F160" s="25">
         <v>133.1</v>
       </c>
-      <c r="G160" s="5" t="s">
+      <c r="G160" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y160" s="3" t="s">
@@ -13858,13 +13958,13 @@
       <c r="D161" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="24">
         <v>48.1</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="24">
         <v>136</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G161" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y161" t="s">
@@ -13885,13 +13985,13 @@
       <c r="D162" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162" s="25">
         <v>47</v>
       </c>
-      <c r="F162" s="5">
+      <c r="F162" s="25">
         <v>140</v>
       </c>
-      <c r="G162" s="5" t="s">
+      <c r="G162" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y162" s="3" t="s">
@@ -13912,13 +14012,13 @@
       <c r="D163" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="24">
         <v>48.1</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="24">
         <v>144</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G163" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y163" t="s">
@@ -13939,13 +14039,13 @@
       <c r="D164" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E164" s="25">
         <v>51</v>
       </c>
-      <c r="F164" s="5">
+      <c r="F164" s="25">
         <v>146.9</v>
       </c>
-      <c r="G164" s="5" t="s">
+      <c r="G164" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y164" s="3" t="s">
@@ -13966,13 +14066,13 @@
       <c r="D165" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="24">
         <v>55</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="24">
         <v>148</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="G165" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y165" t="s">
@@ -13993,13 +14093,13 @@
       <c r="D166" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E166" s="5">
+      <c r="E166" s="25">
         <v>51</v>
       </c>
-      <c r="F166" s="3">
+      <c r="F166" s="26">
         <v>126.9</v>
       </c>
-      <c r="G166" s="3" t="s">
+      <c r="G166" s="26" t="s">
         <v>206</v>
       </c>
       <c r="Y166" s="3" t="s">
@@ -14020,13 +14120,13 @@
       <c r="D167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="24">
         <v>48.1</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167" s="24">
         <v>124</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="G167" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y167" t="s">
@@ -14047,13 +14147,13 @@
       <c r="D168" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E168" s="5">
+      <c r="E168" s="25">
         <v>47</v>
       </c>
-      <c r="F168" s="5">
+      <c r="F168" s="25">
         <v>120</v>
       </c>
-      <c r="G168" s="5" t="s">
+      <c r="G168" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y168" s="3" t="s">
@@ -14074,13 +14174,13 @@
       <c r="D169" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="24">
         <v>48.1</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169" s="24">
         <v>116</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="G169" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y169" t="s">
@@ -14101,13 +14201,13 @@
       <c r="D170" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E170" s="5">
+      <c r="E170" s="25">
         <v>51</v>
       </c>
-      <c r="F170" s="5">
+      <c r="F170" s="25">
         <v>113.1</v>
       </c>
-      <c r="G170" s="5" t="s">
+      <c r="G170" s="25" t="s">
         <v>206</v>
       </c>
       <c r="Y170" s="3" t="s">
@@ -14128,13 +14228,13 @@
       <c r="D171" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="24">
         <v>55</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171" s="24">
         <v>112</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G171" s="24" t="s">
         <v>206</v>
       </c>
       <c r="Y171" t="s">
@@ -14155,9 +14255,9 @@
       <c r="D172" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5" t="s">
+      <c r="E172" s="25"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25" t="s">
         <v>135</v>
       </c>
       <c r="Y172" s="3" t="s">
@@ -14177,7 +14277,9 @@
       <c r="D173" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G173" t="s">
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27" t="s">
         <v>135</v>
       </c>
       <c r="Y173" t="s">
@@ -14198,9 +14300,9 @@
       <c r="D174" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3" t="s">
+      <c r="E174" s="26"/>
+      <c r="F174" s="26"/>
+      <c r="G174" s="26" t="s">
         <v>135</v>
       </c>
       <c r="Y174" s="3" t="s">
@@ -14220,7 +14322,9 @@
       <c r="D175" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G175" t="s">
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27" t="s">
         <v>135</v>
       </c>
       <c r="Y175" t="s">
@@ -14241,9 +14345,9 @@
       <c r="D176" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3" t="s">
+      <c r="E176" s="26"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26" t="s">
         <v>135</v>
       </c>
     </row>
@@ -14257,10 +14361,15 @@
     <mergeCell ref="Y24:Z24"/>
   </mergeCells>
   <conditionalFormatting sqref="Y42:Z44">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>IF(ISBLANK(AC35),FALSE,NOT(OR(EXACT(AC35,#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B176" xr:uid="{33AC95D3-3925-A842-96E6-3B153079B9E6}">
+      <formula1>$C$8:$C$19</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <tableParts count="3">

--- a/inst/extdata/pathway.xlsx
+++ b/inst/extdata/pathway.xlsx
@@ -8,18 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/nils_mechtel_bwedu_de/Documents/Uni/HiWi/HiWi COS/Package - MetAlyzer/MetAlyzer/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="462" documentId="14_{27B912F6-2174-904D-BD36-C5C3DF831B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1A3B0D0-3DDC-D240-8159-B0F5994ECF13}"/>
+  <xr:revisionPtr revIDLastSave="828" documentId="14_{27B912F6-2174-904D-BD36-C5C3DF831B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52CDB57A-BBBA-E24D-A57B-4AAADFA5CCBB}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4920" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pathway" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Pathway!$E$28:$E$176</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Pathway!$E$8:$E$20</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Pathway!$F$28:$F$176</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Pathway!$F$8:$F$20</definedName>
     <definedName name="Connections_Header">Pathway!$Y$27:$AA$27</definedName>
     <definedName name="Metabolites_Header">Pathway!$B$27:$G$27</definedName>
     <definedName name="Pathways_Header">Pathway!$C$7:$G$7</definedName>
@@ -41,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="280">
   <si>
     <t>Node1</t>
   </si>
@@ -434,9 +430,6 @@
   </si>
   <si>
     <t>Indole</t>
-  </si>
-  <si>
-    <t>3-indoleacetic acid</t>
   </si>
   <si>
     <t>x</t>
@@ -972,13 +965,43 @@
     <t>(see "Node-Preview")</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>yellow</t>
+    <t>#F7EBC8</t>
+  </si>
+  <si>
+    <t>#C6DBD6</t>
+  </si>
+  <si>
+    <t>#EDC4C0</t>
+  </si>
+  <si>
+    <t>#D5E5ED</t>
+  </si>
+  <si>
+    <t>#D9BEBE</t>
+  </si>
+  <si>
+    <t>#C6CCC1</t>
+  </si>
+  <si>
+    <t>#C9C7CD</t>
+  </si>
+  <si>
+    <t>#E1D1C2</t>
+  </si>
+  <si>
+    <t>#DDE7E4</t>
+  </si>
+  <si>
+    <t>#D8BCBC</t>
+  </si>
+  <si>
+    <t>#C1BFC9</t>
+  </si>
+  <si>
+    <t>#DAE5E8</t>
+  </si>
+  <si>
+    <t>3-Indoleacetic acid</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1161,6 +1184,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1176,12 +1220,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1191,34 +1229,79 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1231,17 +1314,53 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1367,15 +1486,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1387,35 +1497,15 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1448,87 +1538,13 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC0504D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1653,7 +1669,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57F1FCF4-6596-6246-A840-BA0D3C87164C}" type="CELLRANGE">
+                    <a:fld id="{E4329A5B-0BD5-D641-B19F-EABB4ABE9347}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1687,7 +1703,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93E45478-4132-3342-B176-DF7800B59AB4}" type="CELLRANGE">
+                    <a:fld id="{B23ECD0B-BBD4-1C4C-B873-3530FFBF12AC}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1721,7 +1737,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{674074F2-EAF0-5F44-A651-23357E48AD19}" type="CELLRANGE">
+                    <a:fld id="{B1C22559-97C1-8340-AF41-2C432772F5BF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1755,7 +1771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FFE574E-AAA8-D34F-85A1-2933B2157E1D}" type="CELLRANGE">
+                    <a:fld id="{DCACCAA0-2B0D-F542-92F8-3A3B76C391A7}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1789,7 +1805,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BEF6630F-1F54-DF40-BD35-6A773DEF12F7}" type="CELLRANGE">
+                    <a:fld id="{4B578BB2-4577-3740-8DB3-A35A6187FDEB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1823,7 +1839,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E20B1289-85C5-A74D-8337-9E67D77ECBD9}" type="CELLRANGE">
+                    <a:fld id="{2B4F8DD0-50CF-FD4A-9926-FBC7E1C632D8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1857,7 +1873,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52A15B05-F6BA-C841-97F6-4A944FF77579}" type="CELLRANGE">
+                    <a:fld id="{05BF066B-FCE9-8048-9F76-4AA421E16239}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1891,7 +1907,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D018D79-9A1E-D244-BEBD-67CD11553585}" type="CELLRANGE">
+                    <a:fld id="{15E815B8-724F-5D4A-9EB8-2A949B7C73DD}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1925,7 +1941,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67E9BD2B-43F3-1941-80C3-6E55DFF75DBC}" type="CELLRANGE">
+                    <a:fld id="{ECEE0E46-556D-8245-8489-87D36AE9461E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1959,7 +1975,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25D34412-1611-E040-9B2D-318BEFE4890D}" type="CELLRANGE">
+                    <a:fld id="{CCE09E63-473D-9049-94F9-B531DC11FD64}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1993,7 +2009,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DDA746E-7C01-6F43-8266-684E388EA350}" type="CELLRANGE">
+                    <a:fld id="{B6392D95-DF2E-E140-A3EE-5678E2CADC04}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2027,7 +2043,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3D4CF67-CAFF-814B-9D5F-09EE242A83F7}" type="CELLRANGE">
+                    <a:fld id="{35758D4D-00FE-504B-9165-9CE4868FBED9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2061,7 +2077,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{747C8B2A-83E6-6E47-A07A-F8ED0A238C36}" type="CELLRANGE">
+                    <a:fld id="{51EB4611-811B-DA42-A082-D985E8D6D9C1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2095,7 +2111,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1CC1DD7F-83AE-5B48-8E0B-857CA22D06F4}" type="CELLRANGE">
+                    <a:fld id="{4A1F006B-DE58-CE44-8776-D56AC9420042}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2129,7 +2145,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B98D228E-4FF4-B04A-8318-F02129877843}" type="CELLRANGE">
+                    <a:fld id="{5DEFEB53-122A-784B-9787-56E106037177}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2163,7 +2179,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3B2769B-73B6-974F-AF0C-D4D4BCF419C7}" type="CELLRANGE">
+                    <a:fld id="{1EAEE8F0-1EE6-564F-827A-542630C71ADE}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2197,7 +2213,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{820C2948-2A6F-2548-B932-84868A3FCA9D}" type="CELLRANGE">
+                    <a:fld id="{B7926DD9-447B-FC43-97E3-B43AC0BC2A7A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2231,7 +2247,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA3D6546-02A1-6741-AA1C-C3C63500C37A}" type="CELLRANGE">
+                    <a:fld id="{CBF85F67-E4DA-A64B-BEEE-B6604F059AEC}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2265,7 +2281,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08C64C63-189F-B94D-966D-E787E38B4958}" type="CELLRANGE">
+                    <a:fld id="{85D24AFB-9C78-ED47-9226-0C155F97E8E3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2299,7 +2315,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49E3AE7D-B757-C14B-B64D-CD8CEDCC22E6}" type="CELLRANGE">
+                    <a:fld id="{5295ED22-5511-8847-8E11-91AD54ECAFBA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2333,7 +2349,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C65C6290-39AA-F74E-947F-3FC644A7D302}" type="CELLRANGE">
+                    <a:fld id="{3D83CCF1-2308-8641-895B-5631EA7963E6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2367,7 +2383,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B295421-C507-8C49-96B1-6EFBA76EAD0B}" type="CELLRANGE">
+                    <a:fld id="{60EEEC26-DB08-4548-A041-01C7ED16A3BF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2401,7 +2417,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2D1A5AE-BC2A-4542-BC09-D90480F9B096}" type="CELLRANGE">
+                    <a:fld id="{EE89AD5E-A425-0946-8EAF-FC0021B8D4EA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2435,7 +2451,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66792C97-17C6-C649-ACBA-44AD9B71806B}" type="CELLRANGE">
+                    <a:fld id="{8A22BB65-9FD2-214B-A79D-626774CE981D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2469,7 +2485,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B39DCEA-16C2-4B49-A652-D911904A0F4B}" type="CELLRANGE">
+                    <a:fld id="{CB5D3303-EFD2-2C4C-9CEE-2813E25E66E6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2503,7 +2519,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{747DE8D8-3856-9D41-A4D1-5BF3878D598F}" type="CELLRANGE">
+                    <a:fld id="{6C0A1E46-0D01-1D4C-B0C1-2B9EA5767D2B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2537,7 +2553,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7227919-6235-2146-95A4-67DE1C8B9F8D}" type="CELLRANGE">
+                    <a:fld id="{3B1B4BE0-4D0A-4443-85C1-A4A43C37058B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2571,7 +2587,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DBCD915F-924F-274C-AA3F-B4256EC0E1E8}" type="CELLRANGE">
+                    <a:fld id="{4CC7384E-EDF7-1841-9108-A00167AD519E}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2605,7 +2621,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF9B28FB-9DC4-1E45-9FAF-AA9DCCBF3266}" type="CELLRANGE">
+                    <a:fld id="{6DCDB3A1-7236-7B41-A86F-70678FD96C82}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2639,7 +2655,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51DC1F5E-F9E5-0645-B6AE-AAF8148EDAD9}" type="CELLRANGE">
+                    <a:fld id="{A89C815D-0B2A-CB41-8F98-9D2C5F375C22}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2673,7 +2689,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7FACE789-EDC9-5041-B584-3033D5CDFBE0}" type="CELLRANGE">
+                    <a:fld id="{23A9457C-93D3-284E-A101-0CC6B851274A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2707,7 +2723,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC98A258-AFF7-FD4D-BB43-1723B33D0455}" type="CELLRANGE">
+                    <a:fld id="{5797C294-CDB4-ED45-82F1-B575C10DB535}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2741,7 +2757,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC0E23BB-625C-D143-B269-632CEA67D777}" type="CELLRANGE">
+                    <a:fld id="{37FBBAF5-9413-E54A-94F0-BC21AA13A074}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2775,7 +2791,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C08A53AD-FD2D-B644-A395-245C0EB73389}" type="CELLRANGE">
+                    <a:fld id="{F595410C-3072-CC46-8C3A-50C4E93F9914}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2809,7 +2825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{82EEAE4B-F668-9841-8523-517A7FABED18}" type="CELLRANGE">
+                    <a:fld id="{BC38168E-BC32-3247-BA40-9582403374D0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2843,7 +2859,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4B7D317F-9779-ED45-8914-7C02C36DCEA2}" type="CELLRANGE">
+                    <a:fld id="{EC8BDB06-75A0-E94A-9C12-DB47B2B29A4F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2877,7 +2893,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{74BB7FE2-A9FE-4B41-AEE6-B0EB18EE3A7A}" type="CELLRANGE">
+                    <a:fld id="{4C5DC258-54FF-024A-BF18-607A01A6122B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2911,7 +2927,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2800855F-0033-D44D-A5CE-739863753286}" type="CELLRANGE">
+                    <a:fld id="{43E7E693-C511-1A4A-9868-2108C548F0A2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2945,7 +2961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F358EC84-45EF-164D-B336-622F0654FD3B}" type="CELLRANGE">
+                    <a:fld id="{D5BF37C9-8F4D-4F4E-B87F-E75E048C79C8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -2979,7 +2995,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A3FB129C-ECE6-4242-A871-32179F00CD5C}" type="CELLRANGE">
+                    <a:fld id="{AFABCB49-DAA9-2145-B2E9-81E2C9C526AA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3013,7 +3029,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52B2AE57-1BE8-4F49-A160-B94C8B727155}" type="CELLRANGE">
+                    <a:fld id="{77BF2561-50EC-544B-BDF3-49AA7E0AFD38}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3047,7 +3063,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8418D8E-8BC5-8642-A05F-87AF74F67A02}" type="CELLRANGE">
+                    <a:fld id="{BC3CFC99-977A-F945-B836-BAD14C7BEF28}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3081,7 +3097,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E8B9A99-3F60-B047-B573-770742B17FFF}" type="CELLRANGE">
+                    <a:fld id="{3E25AE7D-FF39-194E-AA6E-CE7117B898EE}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3115,7 +3131,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB96211E-0F80-EE41-A351-C3D2CEA87D42}" type="CELLRANGE">
+                    <a:fld id="{0FD9BEBD-5560-DE43-A473-A197F77ED735}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3149,7 +3165,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9D259E6F-3B3A-4A43-957E-FD78C66FB109}" type="CELLRANGE">
+                    <a:fld id="{B53EC565-E34E-C348-B3E1-8CD996DAB670}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3183,7 +3199,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65F3A416-53CE-374F-A8C4-E05905A56E35}" type="CELLRANGE">
+                    <a:fld id="{B1A72EEB-7D20-594E-B3B5-C8E43A7EC23B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3217,7 +3233,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5309CF94-20ED-B549-BA6E-34B100147572}" type="CELLRANGE">
+                    <a:fld id="{48B013E9-7356-FF42-9B58-08BF312EED0A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3251,7 +3267,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2DBE5140-3977-E148-BEDA-E120213B838F}" type="CELLRANGE">
+                    <a:fld id="{CF10821F-70C4-E840-AD0D-A830BFCF4E62}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3285,7 +3301,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6A17989-4CBD-6B47-86B2-D3769588621E}" type="CELLRANGE">
+                    <a:fld id="{3A025348-B090-D34F-8EA6-1FA099958120}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3319,7 +3335,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{673365ED-5769-B94E-8E80-CAE39026AD63}" type="CELLRANGE">
+                    <a:fld id="{F1872A9B-EF60-984F-B9E7-190D6F2D0AB1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3353,7 +3369,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D689CB88-5716-ED4C-9584-60F3E5CC68E0}" type="CELLRANGE">
+                    <a:fld id="{B2ED1B66-1AB9-3E4E-BA4F-3356B91C3323}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3387,7 +3403,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{928EB4B0-D548-2440-BE05-D2787579D34F}" type="CELLRANGE">
+                    <a:fld id="{4CAB71D8-9837-A541-AFF1-9DE7F7D54F27}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3421,7 +3437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{429BADAC-05E1-E04D-A82D-F7894C44D048}" type="CELLRANGE">
+                    <a:fld id="{00AED8F8-CDAC-B74F-8521-4E16EC95687D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3455,7 +3471,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F47AC9A-73AA-754D-B2A5-6CB41622F7A0}" type="CELLRANGE">
+                    <a:fld id="{CF813610-A0C1-DB4A-BEC7-E85FB117A3E0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3489,7 +3505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B98396C0-29C3-674B-BF2D-012CFE17AA43}" type="CELLRANGE">
+                    <a:fld id="{9893E331-418A-0B4C-B392-1A02692F0FE9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3523,7 +3539,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05F37634-FF26-D246-BEBC-55688B50CE41}" type="CELLRANGE">
+                    <a:fld id="{7F961EB4-076B-2F4E-B110-DE53F604E3F0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3557,7 +3573,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{736130DC-694C-A64A-B719-D0E701D3371A}" type="CELLRANGE">
+                    <a:fld id="{A10F48DF-94A7-614D-9114-2CB267C36773}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3591,7 +3607,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{586B8FD5-C046-4945-B17C-2353F02C8BCE}" type="CELLRANGE">
+                    <a:fld id="{AF29ED37-95B4-F846-970E-769BB348E4AC}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3625,7 +3641,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05D20759-BDA7-5F47-8071-1E5FF8B5D6AF}" type="CELLRANGE">
+                    <a:fld id="{3533FA71-A931-7144-A4C4-7A1FE5E215AC}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3659,7 +3675,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2B1C8A9E-27E4-4049-B6A6-C84C5CE2CE66}" type="CELLRANGE">
+                    <a:fld id="{059C0781-009A-9C42-BB87-BD27E3417F1B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3693,7 +3709,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D1D1234-844D-8143-8974-0D77F757406F}" type="CELLRANGE">
+                    <a:fld id="{E70388E5-48ED-DD4D-AF67-B0A082FE8209}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3727,7 +3743,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F95F1D46-4C77-4A4B-A9CE-BFBC359AE4ED}" type="CELLRANGE">
+                    <a:fld id="{D17DA3DD-71EE-574B-BC3E-3D1B5499AABA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3761,7 +3777,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96403559-A528-E347-B5C5-47B9BF42E016}" type="CELLRANGE">
+                    <a:fld id="{A26FFC7D-5E88-4C45-8613-C7E65B2622F4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3795,7 +3811,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BB2A8869-ED1D-B14A-9921-166B1FC86D43}" type="CELLRANGE">
+                    <a:fld id="{55D175A3-C794-B34E-803E-19E3074C1819}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3829,7 +3845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB5EDEA9-B93A-6347-B385-B03B88847BE1}" type="CELLRANGE">
+                    <a:fld id="{CE36E392-EF8E-0F40-871C-1406B62F1142}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3863,7 +3879,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F693C364-D105-AD4F-B6D0-D55D97BF386A}" type="CELLRANGE">
+                    <a:fld id="{5604F076-740F-2A4E-A60E-80BCDDBBE9C8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3897,7 +3913,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C87EA35-B470-434B-9586-0BFC2553DFE4}" type="CELLRANGE">
+                    <a:fld id="{97AE8D89-C05F-3844-9A1D-D093DDBAD14D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3931,7 +3947,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08E319A9-85CF-9F40-A4AB-385290F33F39}" type="CELLRANGE">
+                    <a:fld id="{6E85BA20-A308-F046-BC06-CDAE5F612F49}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3965,7 +3981,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FAB6E18-DA03-E54C-9FAB-20E47BEB689E}" type="CELLRANGE">
+                    <a:fld id="{C22F1F32-9E67-9E44-8007-0A669454F3BC}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -3999,7 +4015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD3CE004-4A31-8945-98C8-9D19E8952967}" type="CELLRANGE">
+                    <a:fld id="{BEB90078-0BAD-AE46-9369-0C89F6F16134}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4033,7 +4049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21817A6A-5C2B-274F-87F0-666113D8626F}" type="CELLRANGE">
+                    <a:fld id="{E64B04F9-AF36-6844-8526-1DB0A499190D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4067,7 +4083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CDD4F3E-A23D-E948-9BDF-0F059F8C35C4}" type="CELLRANGE">
+                    <a:fld id="{FBFA4FE4-C572-C342-94C1-07C39D34ED74}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4101,7 +4117,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7188A45E-6C87-5842-9644-AAFFD372BA75}" type="CELLRANGE">
+                    <a:fld id="{5B3644A1-E63E-834F-A900-91F83DF032F3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4135,7 +4151,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2156D724-BB2D-A648-94B2-9F4C0B5345B9}" type="CELLRANGE">
+                    <a:fld id="{45D3FD09-0B41-A64A-8594-E5742AB607F7}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4169,7 +4185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA10D773-598D-5E47-B0C9-9B321F3C7854}" type="CELLRANGE">
+                    <a:fld id="{6A24230E-D782-1340-8F96-FA55ABAFBE35}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4203,7 +4219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B5426B5-D971-CA47-BC4E-F10A2C79CD79}" type="CELLRANGE">
+                    <a:fld id="{51CA87A4-FB7C-4C47-8E11-1035F4C38CEF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4237,7 +4253,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE1E944A-3DB8-9746-AF17-24071335FFB9}" type="CELLRANGE">
+                    <a:fld id="{D7481FE2-9676-8942-AF2D-2B865485C935}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4271,7 +4287,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FF58AEE-6627-564E-8E2F-DB986444A5DB}" type="CELLRANGE">
+                    <a:fld id="{92C4FCEE-4A02-8F42-9C32-C8EC7C215E42}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4305,7 +4321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B79A09E-1FA1-2148-942D-B956B93AF83B}" type="CELLRANGE">
+                    <a:fld id="{E76597BA-EA1D-FA43-BD8F-295BCCB1A1E7}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4339,7 +4355,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DD380540-D743-F74F-8499-1ADC074A8E83}" type="CELLRANGE">
+                    <a:fld id="{735915D5-27C1-E543-BF77-60510EB60683}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4373,7 +4389,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB8851B8-3ED7-E240-BB84-6A90DC104C37}" type="CELLRANGE">
+                    <a:fld id="{7127B7D6-3AAF-7443-B8CA-4FA923EA05C0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4407,7 +4423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AF6396A9-371D-6C47-A134-C9EFF1C01305}" type="CELLRANGE">
+                    <a:fld id="{D30E8459-3E8B-8946-B67C-E27CBECFC2C9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4441,7 +4457,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{97091A35-4DEF-534B-B56E-AE27D2CDEB90}" type="CELLRANGE">
+                    <a:fld id="{1AC82EAC-E8B6-3746-80AC-36DA4BB229E4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4475,7 +4491,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3499F04C-FEF0-1D45-87EA-636CF8D453F8}" type="CELLRANGE">
+                    <a:fld id="{B9078B8D-5D44-8F49-93A2-0B83DA96F1F8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4509,7 +4525,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{52F33A88-D717-9F4F-8B55-A21F20F61926}" type="CELLRANGE">
+                    <a:fld id="{3C886410-4164-7B45-A1E0-7EDF5415BBFB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4543,7 +4559,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F753BE07-3D75-CF47-9AA8-55B4F807CB4B}" type="CELLRANGE">
+                    <a:fld id="{62614268-FBA6-A84A-AB68-3649FA905D13}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4577,7 +4593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BE6A650-7D1E-374D-86F0-85F1AA105CF0}" type="CELLRANGE">
+                    <a:fld id="{B9A28673-F4AF-4849-BCFA-2AE7774C698C}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4611,7 +4627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E375987C-6806-C54F-9FFD-C9900F8720FA}" type="CELLRANGE">
+                    <a:fld id="{1442D88C-16E7-4441-8249-C4D43FB901C6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4645,7 +4661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A7A7B1A-5BA2-4B4E-BEA3-5F369288CDD6}" type="CELLRANGE">
+                    <a:fld id="{41DBC880-EE5C-694A-AE76-2B3E891BB7FF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4679,7 +4695,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6289563D-DE90-0E4B-BF5C-F2795BC7F9F5}" type="CELLRANGE">
+                    <a:fld id="{F3A08E62-FB83-8A41-9B17-D6B96F87BCD2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4713,7 +4729,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A28783A3-1DDA-2A4F-BAFA-9D2B828C2562}" type="CELLRANGE">
+                    <a:fld id="{4E1BC4DC-E1B1-3249-963D-47913AFACCE1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4747,7 +4763,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E60091F-4065-2E43-BF09-9E14CF8D741E}" type="CELLRANGE">
+                    <a:fld id="{71CDCA2A-9512-3846-9CED-7530F29E6DD2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4781,7 +4797,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5E769935-4DB9-C741-B4ED-52F9024B9AC3}" type="CELLRANGE">
+                    <a:fld id="{97B29C92-A372-0D47-A22B-DD4900A85B29}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4815,7 +4831,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B24099E6-EF1D-CD46-AD83-4227570816BD}" type="CELLRANGE">
+                    <a:fld id="{33B7B211-2957-564B-BDD7-2E4678C9CA58}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4849,7 +4865,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0FCEB455-7DB5-2440-83C1-B8083E53B723}" type="CELLRANGE">
+                    <a:fld id="{FC59E39C-6DB5-8D4F-997E-50560A953108}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4883,7 +4899,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A550C979-37E6-554E-8BD8-2EAFF635A59D}" type="CELLRANGE">
+                    <a:fld id="{4B1B00C1-8EE9-C74E-9580-F19476BD8312}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4917,7 +4933,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2CCACEC6-1CB4-4446-95F5-2405608D01E6}" type="CELLRANGE">
+                    <a:fld id="{438356D5-F521-B74C-A3A6-AED4CBCA61C6}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4951,7 +4967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{669ECCED-6714-DB42-8A22-347DAAD710EA}" type="CELLRANGE">
+                    <a:fld id="{35856B13-DBE2-8A4A-A758-85C33CA039E2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -4985,7 +5001,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B98CF4E3-F79F-3346-B0E5-ABC319713B15}" type="CELLRANGE">
+                    <a:fld id="{487DBE96-DDD0-C642-B443-6122938DBF66}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5019,7 +5035,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B2A60CB-A2E8-7B46-9D2B-B341865BC15E}" type="CELLRANGE">
+                    <a:fld id="{568995C9-F357-1841-80F8-2C222471BF1F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5053,7 +5069,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1010F5C5-3B0D-AD43-A379-9AF5C387A338}" type="CELLRANGE">
+                    <a:fld id="{E0C2135A-4F6F-7443-9094-B7731CCEB2B4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5087,7 +5103,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E62893C5-648C-CA43-9B27-E8FE74898DBE}" type="CELLRANGE">
+                    <a:fld id="{E31A8CBF-1379-394B-90AF-A9151A0DE6A2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5121,7 +5137,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{73657C0E-0234-3442-8FB2-3EF6013497F1}" type="CELLRANGE">
+                    <a:fld id="{1BFC02D8-5D29-4F4A-9124-8AEA22589B8B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5155,7 +5171,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A207D091-53FF-4E4B-9CB0-89638429CEC6}" type="CELLRANGE">
+                    <a:fld id="{8883C52F-96B4-1C45-8104-3E057804F3C8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5189,7 +5205,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A476C88-3406-754C-94A9-97B155D7AF99}" type="CELLRANGE">
+                    <a:fld id="{1CCFE444-2E77-1C41-B121-38BD14687CB2}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5223,7 +5239,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{023EAB59-615B-2D44-99E0-915BA79AFE82}" type="CELLRANGE">
+                    <a:fld id="{1076C6F8-4A61-5E41-8B50-C7A9F0BB4D14}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5257,7 +5273,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D744BD8-E7AB-C44F-904B-D70030504F48}" type="CELLRANGE">
+                    <a:fld id="{398BEFAC-B85F-CA44-A855-EAF1818DCB7A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5291,7 +5307,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3814117D-2A97-8046-A811-CA7A9FF37E16}" type="CELLRANGE">
+                    <a:fld id="{5CFAB8F0-BBF2-0A44-AEAF-F2DD30BF21F0}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5325,7 +5341,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9205664C-84A1-C442-8BFF-A7394D01C570}" type="CELLRANGE">
+                    <a:fld id="{0D35C707-8C08-C349-AEB5-84DE04ED5CA3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5359,7 +5375,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A65D187-7A6B-7243-A8C9-A22385C09B3D}" type="CELLRANGE">
+                    <a:fld id="{DE3B455E-E863-C043-A5BE-61C45A2CF6BE}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5393,7 +5409,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7A8CDA84-6CD1-5E4A-B2C4-49FDD68F243D}" type="CELLRANGE">
+                    <a:fld id="{D4CD6931-3F0A-9240-B3D9-DF864D3D70FB}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5427,7 +5443,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C8A01A29-4248-C44A-B379-7BFEE23C1823}" type="CELLRANGE">
+                    <a:fld id="{2888D4C9-551E-C243-B57F-AB4F82F4CBB4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5461,7 +5477,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C0A5E3F-480B-244C-AA7D-0C075463B08D}" type="CELLRANGE">
+                    <a:fld id="{549314A4-9668-7A42-A2E7-20D8E55EBB29}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5495,7 +5511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{410AEF7C-ABF6-AC42-859F-9C6406D6099F}" type="CELLRANGE">
+                    <a:fld id="{73470351-3F4E-844A-80D7-30B528899638}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5529,7 +5545,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{505B24BA-761E-D746-B3D4-F159EBDB65FA}" type="CELLRANGE">
+                    <a:fld id="{BA11B56C-3218-AE47-9EF0-5D3686EC380F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5563,7 +5579,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5F56443-8C7E-BF43-B95D-2EB6F6DD76D9}" type="CELLRANGE">
+                    <a:fld id="{D1C0E97A-A67B-5C44-93D8-BC329353F481}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5597,7 +5613,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA23B1EF-091A-6C44-955B-67FF262F4803}" type="CELLRANGE">
+                    <a:fld id="{6D9F494A-A7A8-5147-95C2-D8461BC02ECF}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5631,7 +5647,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DC77709-C9A2-6C4D-8147-6834B224EE4B}" type="CELLRANGE">
+                    <a:fld id="{0A7A42E6-B1B2-FE4F-B124-C69B0BD81344}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5665,7 +5681,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8FB96C6-E655-8545-8559-55C256BA5F0A}" type="CELLRANGE">
+                    <a:fld id="{4D5EFAC5-555E-FE42-91E5-F3DE1B919740}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5699,7 +5715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9D224E5-0626-1845-A1F0-52680DA06D90}" type="CELLRANGE">
+                    <a:fld id="{77E64E58-ADF2-724C-9B75-9538C934AAF8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5733,7 +5749,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5711EBFC-4FF7-A343-A06D-6F999BAC9A22}" type="CELLRANGE">
+                    <a:fld id="{854356C1-1BC6-F744-BA01-0021C6AC6803}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5767,7 +5783,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{436DBF26-3C1D-4542-8BCB-FEAAD0BB4983}" type="CELLRANGE">
+                    <a:fld id="{80BF80C5-DD91-E140-9260-34C0424E6435}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5801,7 +5817,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D15FA5C5-6DCA-6F49-83FB-99CEB0E9B295}" type="CELLRANGE">
+                    <a:fld id="{EFEEAEF3-90C3-024F-BD61-068DE0EC4EC1}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5835,7 +5851,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14A77DF9-D784-B743-851B-7FC2A01875D1}" type="CELLRANGE">
+                    <a:fld id="{3632E6C1-6B8D-0243-BDB5-57386F9BD673}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5869,7 +5885,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03C39C31-314D-ED43-A7F6-53E072ADD114}" type="CELLRANGE">
+                    <a:fld id="{5E72A1FE-4FE3-764E-9EB6-4D9D919715D3}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5903,7 +5919,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{679FB330-0DA3-4148-AEC4-B7656F93692A}" type="CELLRANGE">
+                    <a:fld id="{93D486EB-6D74-704B-9D4A-DD1E40A5F9DA}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5937,7 +5953,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40754459-4F31-034B-8D1F-DA7D8F4D9118}" type="CELLRANGE">
+                    <a:fld id="{DE80551C-FFF4-844F-B393-1C01156F9BD9}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -5971,7 +5987,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30A8F29A-5CD5-3C4F-9F72-FE74DBC8EAAD}" type="CELLRANGE">
+                    <a:fld id="{C914604F-C1B9-CB4E-8DDE-6548E468419A}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6005,7 +6021,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{896C659F-4A19-3A40-B460-57E7C0EAAF0C}" type="CELLRANGE">
+                    <a:fld id="{5A1D7F8C-989A-5448-8819-65701E474791}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6039,7 +6055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64E4B4B1-39AA-F44E-ACD0-741025A2E395}" type="CELLRANGE">
+                    <a:fld id="{0C3A5EF7-05C0-9841-B3E0-D7D4738D4C97}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6073,7 +6089,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96A1AF12-38D5-4D4E-9BF8-D5C16B14D780}" type="CELLRANGE">
+                    <a:fld id="{82825E4F-E74D-E243-AB93-956B958AF407}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6107,7 +6123,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E9A827F6-C3C9-F349-9147-38979644667E}" type="CELLRANGE">
+                    <a:fld id="{EFBFA821-32DD-954D-8410-020AD9200A12}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6141,7 +6157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AB7521B-C365-D040-AC9F-DACB97991522}" type="CELLRANGE">
+                    <a:fld id="{F7D25890-5E90-5943-BC2E-B99ECD50E1F8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6175,7 +6191,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1521845C-F582-9544-AA12-3C912DC66F11}" type="CELLRANGE">
+                    <a:fld id="{5CAD2082-9F19-3548-9C39-DA771E4A9F42}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6209,7 +6225,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA7FDAF8-C8DF-0548-913B-FE55BDDAC9EB}" type="CELLRANGE">
+                    <a:fld id="{E6297F7E-DADE-FB43-ACB5-DCFB5E753014}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6243,7 +6259,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F4DCE9E1-EDF5-D243-85B3-2F23EA5E6153}" type="CELLRANGE">
+                    <a:fld id="{58EEAFAF-F4D5-E440-926A-9CF4E1FC7D76}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6277,7 +6293,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{047242E7-937D-804E-AD26-E765A525FA95}" type="CELLRANGE">
+                    <a:fld id="{70605A59-F7F7-E741-BAEE-66F87C6D7087}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6311,7 +6327,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1A92245-9999-2642-A5C5-60C88A48532F}" type="CELLRANGE">
+                    <a:fld id="{1C07F73C-1D86-7F4F-B3D4-8726930890CD}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6345,7 +6361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27231E5B-9DD1-7747-95C6-19E08814D64B}" type="CELLRANGE">
+                    <a:fld id="{6502BAE5-BCA8-4040-B1D0-F3E2C5EF005F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6379,7 +6395,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1614BC42-D4AE-7E46-8FF0-0737A9B0627E}" type="CELLRANGE">
+                    <a:fld id="{2590171F-0999-1F49-8B3A-575B662C2408}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6413,7 +6429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C6FB4EED-6A37-6449-B73F-2DF985FD04A3}" type="CELLRANGE">
+                    <a:fld id="{93ACA930-9568-E248-A28C-19EC20AA7B78}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6447,7 +6463,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CBA390EB-CE45-D546-BAC8-357E181F5D9F}" type="CELLRANGE">
+                    <a:fld id="{54828302-B7E9-AF41-AD69-F247E3A1C860}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6481,7 +6497,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{923484D4-6D87-8046-9537-2AC6A1B72264}" type="CELLRANGE">
+                    <a:fld id="{4ABCA733-EB83-214F-8B34-375414D804FE}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6515,7 +6531,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AC3755A-8A2A-554B-9904-61B3327A6601}" type="CELLRANGE">
+                    <a:fld id="{76A1AC01-D0B5-CB41-B86D-D32F011B5246}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -6787,13 +6803,13 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>110</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>90</c:v>
@@ -6802,19 +6818,19 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>110</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>110</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>90</c:v>
@@ -6829,10 +6845,10 @@
                   <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>110</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>125</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>130</c:v>
@@ -6898,10 +6914,10 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>175</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>180</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>150</c:v>
@@ -6928,10 +6944,10 @@
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>180</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>180</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>140</c:v>
@@ -6958,31 +6974,31 @@
                   <c:v>129.4</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>82.5</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>77.5</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>70</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>70</c:v>
@@ -7021,7 +7037,7 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>165</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>180</c:v>
@@ -7042,7 +7058,7 @@
                   <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>145</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>150</c:v>
@@ -7054,10 +7070,10 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>130</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>130</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
                 <c:pt idx="109">
                   <c:v>135</c:v>
@@ -7120,49 +7136,49 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>20</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>51</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>48.1</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>47</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>48.1</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>51</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>55</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>51</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>48.1</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>47</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>48.1</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>51</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>55</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7228,52 +7244,52 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>140</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>120</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>115</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>150</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>150</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>140</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>150</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>95</c:v>
@@ -7339,7 +7355,7 @@
                   <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>160</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>155</c:v>
@@ -7405,7 +7421,7 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>90</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>60</c:v>
@@ -7435,16 +7451,16 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>75</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>85</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>60</c:v>
+                  <c:v>59.4</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>40</c:v>
@@ -7510,7 +7526,7 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>50</c:v>
@@ -7570,40 +7586,40 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>133.1</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>136</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>140</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>144</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>146.9</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>148</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>126.9</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>124</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>120</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>116</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>113.1</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>112</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8003,7 +8019,7 @@
                     <c:v>Indole</c:v>
                   </c:pt>
                   <c:pt idx="129">
-                    <c:v>3-indoleacetic acid</c:v>
+                    <c:v>3-Indoleacetic acid</c:v>
                   </c:pt>
                   <c:pt idx="130">
                     <c:v>Indoxyl sulfate </c:v>
@@ -8104,7 +8120,9 @@
               <c:symbol val="circle"/>
               <c:size val="5"/>
               <c:spPr>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:srgbClr val="C0504D"/>
+                </a:solidFill>
                 <a:ln w="9525">
                   <a:noFill/>
                 </a:ln>
@@ -8126,7 +8144,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C13C0C8D-7B43-6F48-969C-D47769F8D0CC}" type="CELLRANGE">
+                    <a:fld id="{8D7EDE44-FC15-724C-88F6-6949D4CA3D49}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8160,7 +8178,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{462D3965-0A03-7F44-921D-F7BCEB702A8B}" type="CELLRANGE">
+                    <a:fld id="{0FB8B197-F7C7-204E-9CF1-DDC1EA8EBA30}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8194,7 +8212,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B44DB428-CA0F-F145-BEB6-DCD1F8798621}" type="CELLRANGE">
+                    <a:fld id="{557C71C6-280C-5842-9094-BAAC0C36B8D8}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8228,7 +8246,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EAC229FB-17D5-444E-AE78-6A1FB5DF3C98}" type="CELLRANGE">
+                    <a:fld id="{0F47FE93-3C53-BB49-B48E-17FF67C3930D}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8262,7 +8280,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB6963FF-5ADC-9043-BE29-3097B0B5CEFF}" type="CELLRANGE">
+                    <a:fld id="{94835FC6-5EF1-524F-B729-23CA246E7483}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8296,7 +8314,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{25E21472-9538-2840-AC21-3D0DB529A9E6}" type="CELLRANGE">
+                    <a:fld id="{D29CEC6B-FB75-B64B-A5E1-AFC4FBDC853B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8330,7 +8348,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88D7478A-8DA3-AD49-8E1E-5687DE373FD2}" type="CELLRANGE">
+                    <a:fld id="{11E3FB49-41E5-BF46-8756-FE212E7C2C62}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8364,7 +8382,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C309B317-0E37-D143-8C31-CC56E2843014}" type="CELLRANGE">
+                    <a:fld id="{2101803D-370D-CC45-82FD-733ECAC70124}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8398,7 +8416,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C406FC92-0F62-7242-B5CE-8132F25F9242}" type="CELLRANGE">
+                    <a:fld id="{14AE4B13-7F64-3440-8718-7445B5EF4D7F}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8432,7 +8450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{174B6778-9B9F-6F43-9E57-7BC380B3F644}" type="CELLRANGE">
+                    <a:fld id="{E8224B44-89FF-944B-8D83-8FB39B47741B}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8466,7 +8484,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CECB134C-B0D9-4941-BC51-EC3B2BDE6874}" type="CELLRANGE">
+                    <a:fld id="{A267A773-8787-A847-A494-EDA1638E4479}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8500,7 +8518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5E5022E-7C39-CD4A-9077-42857ACA6E90}" type="CELLRANGE">
+                    <a:fld id="{7BEADEAD-2855-5241-B0C1-8D3C7FE67AB4}" type="CELLRANGE">
                       <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -8603,25 +8621,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>175</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>80</c:v>
@@ -8630,10 +8648,10 @@
                   <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>190</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>40</c:v>
@@ -8654,31 +8672,31 @@
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>10</c:v>
@@ -8975,7 +8993,9 @@
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -9625,28 +9645,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9ECE0968-8858-4848-96DC-2D8866FCBBA0}" name="Pathways" displayName="Pathways" ref="C7:G19" totalsRowShown="0" headerRowDxfId="15" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9ECE0968-8858-4848-96DC-2D8866FCBBA0}" name="Pathways" displayName="Pathways" ref="C7:G19" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="C7:G19" xr:uid="{9ECE0968-8858-4848-96DC-2D8866FCBBA0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{066DDBAD-A6AD-8646-8459-1A71B1FC4725}" name="Pathway" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{066DDBAD-A6AD-8646-8459-1A71B1FC4725}" name="Pathway" dataDxfId="14">
       <calculatedColumnFormula>D8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6A704F2E-A2F2-9742-9885-C585B7FAD273}" name="Label" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B56E32DF-4C5F-5B46-ACCA-D5546C847CD8}" name="x" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9650AEDB-07E3-F045-9DAF-7D13C9F52BA5}" name="y" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{80FB3F51-8706-9A48-91A5-4E4B4BA1ABF7}" name="Color" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6A704F2E-A2F2-9742-9885-C585B7FAD273}" name="Label" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B56E32DF-4C5F-5B46-ACCA-D5546C847CD8}" name="x" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9650AEDB-07E3-F045-9DAF-7D13C9F52BA5}" name="y" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{80FB3F51-8706-9A48-91A5-4E4B4BA1ABF7}" name="Color" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B44ACB61-3C96-BA49-A158-016A4C830120}" name="Metabolites" displayName="Metabolites" ref="B27:G176" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B44ACB61-3C96-BA49-A158-016A4C830120}" name="Metabolites" displayName="Metabolites" ref="B27:G176" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="B27:G176" xr:uid="{B44ACB61-3C96-BA49-A158-016A4C830120}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B28:G176">
     <sortCondition descending="1" ref="B29:B176"/>
@@ -9654,17 +9670,17 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4C87A1F2-C84C-D249-A8AA-5FC6E933D916}" name="Pathway"/>
     <tableColumn id="2" xr3:uid="{D8E4BB4D-01C8-0B4B-A6E7-4D643ADA51C5}" name="Metabolites"/>
-    <tableColumn id="3" xr3:uid="{C46474A9-396E-0D4B-84F7-FE6C6C325195}" name="Label" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{6B51A87E-DD94-7F4C-B534-ABE286E5F44C}" name="x" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{E02CA605-EAFC-1148-A9A6-93209615314A}" name="y" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{A116D9D3-C501-C845-9E2B-8ED54D070C69}" name="Shape" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{C46474A9-396E-0D4B-84F7-FE6C6C325195}" name="Label" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6B51A87E-DD94-7F4C-B534-ABE286E5F44C}" name="x" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E02CA605-EAFC-1148-A9A6-93209615314A}" name="y" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{A116D9D3-C501-C845-9E2B-8ED54D070C69}" name="Shape" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BE5291A-D3D6-574B-8BDF-9220BF9A0D6C}" name="Connections" displayName="Connections" ref="Y27:AA175" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BE5291A-D3D6-574B-8BDF-9220BF9A0D6C}" name="Connections" displayName="Connections" ref="Y27:AA175" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="Y27:AA175" xr:uid="{2BE5291A-D3D6-574B-8BDF-9220BF9A0D6C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{89095999-8849-3345-93DE-3BF06477C049}" name="Node1"/>
@@ -9962,8 +9978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48467D80-D495-7249-A853-0BA2330C68EC}">
   <dimension ref="B1:AA176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="D35" zoomScale="200" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9977,383 +9993,380 @@
     <col min="27" max="27" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F5" s="12"/>
+        <v>252</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" s="19"/>
       <c r="G5" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="28" t="str">
+      <c r="G7" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="str">
         <f>D8</f>
         <v>Bile Acids</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="29">
-        <v>10</v>
-      </c>
-      <c r="F8" s="29">
+      <c r="D8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17">
         <v>100</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="28" t="str">
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="str">
         <f t="shared" ref="C9:C19" si="0">D9</f>
         <v>Eicosanoid Synthesis</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="29">
-        <v>65</v>
-      </c>
-      <c r="F9" s="29">
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="17">
+        <v>55</v>
+      </c>
+      <c r="F9" s="17">
         <v>170</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="28" t="str">
+      <c r="G9" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="str">
         <f t="shared" si="0"/>
         <v>Hormones</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="29">
-        <v>70</v>
-      </c>
-      <c r="F10" s="29">
-        <v>115</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="28" t="str">
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="17">
+        <v>27.5</v>
+      </c>
+      <c r="F10" s="17">
+        <v>80</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="str">
         <f t="shared" si="0"/>
         <v>Beta Oxidation</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11" s="29">
-        <v>125</v>
-      </c>
-      <c r="F11" s="29">
-        <v>125</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="28" t="str">
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="17">
+        <v>120</v>
+      </c>
+      <c r="F11" s="17">
+        <v>132</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>Choline/Betaine metabolism</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="29">
-        <v>150</v>
-      </c>
-      <c r="F12" s="29">
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="17">
         <v>165</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="28" t="str">
+      <c r="F12" s="17">
+        <v>175</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>Lysine Metabolism</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="29">
-        <v>175</v>
-      </c>
-      <c r="F13" s="29">
-        <v>105</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="28" t="str">
+      <c r="D13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="17">
+        <v>180</v>
+      </c>
+      <c r="F13" s="17">
+        <v>110</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C14" t="str">
         <f t="shared" si="0"/>
         <v>Poly Amines</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="29">
-        <v>20</v>
-      </c>
-      <c r="F14" s="29">
-        <v>75</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="28" t="str">
+      <c r="D14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="17">
+        <v>55</v>
+      </c>
+      <c r="F14" s="17">
+        <v>95</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="str">
         <f t="shared" si="0"/>
         <v>Urea Cycle</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="29">
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="17">
         <v>80</v>
       </c>
-      <c r="F15" s="29">
-        <v>84</v>
-      </c>
-      <c r="G15" s="29" t="s">
+      <c r="F15" s="17">
+        <v>90</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="28" t="str">
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C16" t="str">
         <f t="shared" si="0"/>
         <v>TCA Cycle</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="29">
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="17">
         <v>140</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="17">
         <v>70</v>
       </c>
-      <c r="G16" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="H16" s="22"/>
+      <c r="G16" s="17" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C17" s="28" t="str">
+      <c r="C17" t="str">
         <f t="shared" si="0"/>
         <v>Glutamate Metabolism</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="29">
-        <v>190</v>
-      </c>
-      <c r="F17" s="29">
-        <v>30</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="22"/>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="17">
+        <v>170</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C18" s="28" t="str">
+      <c r="C18" t="str">
         <f t="shared" si="0"/>
         <v>Monoamine Metabolism</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="29">
-        <v>90</v>
-      </c>
-      <c r="F18" s="29">
-        <v>5</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="22"/>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="17">
+        <v>105</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C19" s="28" t="str">
+      <c r="C19" t="str">
         <f t="shared" si="0"/>
         <v>Indole/Tryptophane Metabolism</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="29">
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="17">
         <v>40</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="17">
         <v>10</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="G19" s="17" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="21" spans="2:27" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:27" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
-      <c r="Y22" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z22" s="19"/>
-      <c r="AA22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="Y22" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="25"/>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y24" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z24" s="12"/>
+      <c r="Y24" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z24" s="19"/>
       <c r="AA24" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="2:27" ht="107" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F25" s="12"/>
+      <c r="E25" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="F25" s="19"/>
       <c r="G25" s="8"/>
       <c r="Y25" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z25" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="Z25" s="8" t="s">
-        <v>264</v>
-      </c>
       <c r="AA25" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y27" s="17" t="s">
+      <c r="Y27" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="Z27" s="17" t="s">
+      <c r="Z27" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AA27" s="17" t="s">
-        <v>262</v>
+      <c r="AA27" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>16</v>
@@ -10361,20 +10374,20 @@
       <c r="D28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="13">
         <v>10</v>
       </c>
-      <c r="F28" s="23">
+      <c r="F28" s="13">
         <v>180</v>
       </c>
-      <c r="G28" s="23" t="s">
-        <v>135</v>
+      <c r="G28" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="Y28" s="3" t="s">
         <v>2</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AA28" s="3">
         <v>0</v>
@@ -10382,26 +10395,26 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="14">
         <v>20</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="14">
         <v>180</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>135</v>
+      <c r="G29" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y29" t="s">
         <v>2</v>
       </c>
       <c r="Z29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -10409,7 +10422,7 @@
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>21</v>
@@ -10417,14 +10430,14 @@
       <c r="D30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="15">
         <v>10</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="15">
         <v>170</v>
       </c>
-      <c r="G30" s="25" t="s">
-        <v>135</v>
+      <c r="G30" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y30" s="3" t="s">
         <v>2</v>
@@ -10438,20 +10451,20 @@
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="14">
         <v>20</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="14">
         <v>165</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>135</v>
+      <c r="G31" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y31" t="s">
         <v>2</v>
@@ -10465,7 +10478,7 @@
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>26</v>
@@ -10473,14 +10486,14 @@
       <c r="D32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="15">
         <v>1</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="15">
         <v>165</v>
       </c>
-      <c r="G32" s="25" t="s">
-        <v>135</v>
+      <c r="G32" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y32" s="3" t="s">
         <v>2</v>
@@ -10494,7 +10507,7 @@
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>24</v>
@@ -10502,14 +10515,14 @@
       <c r="D33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="14">
         <v>10</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="14">
         <v>155</v>
       </c>
-      <c r="G33" s="24" t="s">
-        <v>135</v>
+      <c r="G33" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y33" t="s">
         <v>2</v>
@@ -10523,7 +10536,7 @@
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>27</v>
@@ -10531,20 +10544,20 @@
       <c r="D34" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="15">
         <v>1</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="15">
         <v>150</v>
       </c>
-      <c r="G34" s="25" t="s">
-        <v>135</v>
+      <c r="G34" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AA34" s="3">
         <v>0</v>
@@ -10552,7 +10565,7 @@
     </row>
     <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>25</v>
@@ -10560,14 +10573,14 @@
       <c r="D35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="14">
         <v>9</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="14">
         <v>145</v>
       </c>
-      <c r="G35" s="24" t="s">
-        <v>135</v>
+      <c r="G35" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y35" t="s">
         <v>7</v>
@@ -10581,20 +10594,20 @@
     </row>
     <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="15">
         <v>1</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="15">
         <v>140</v>
       </c>
-      <c r="G36" s="25" t="s">
-        <v>135</v>
+      <c r="G36" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y36" s="3" t="s">
         <v>7</v>
@@ -10608,7 +10621,7 @@
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>23</v>
@@ -10616,14 +10629,14 @@
       <c r="D37" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="14">
         <v>20</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="14">
         <v>140</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>135</v>
+      <c r="G37" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y37" t="s">
         <v>7</v>
@@ -10637,7 +10650,7 @@
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>29</v>
@@ -10645,14 +10658,14 @@
       <c r="D38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="15">
         <v>1</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="15">
         <v>130</v>
       </c>
-      <c r="G38" s="25" t="s">
-        <v>135</v>
+      <c r="G38" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y38" s="3" t="s">
         <v>7</v>
@@ -10666,7 +10679,7 @@
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>30</v>
@@ -10674,14 +10687,14 @@
       <c r="D39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E39" s="14">
         <v>20</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="14">
         <v>133</v>
       </c>
-      <c r="G39" s="24" t="s">
-        <v>135</v>
+      <c r="G39" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y39" t="s">
         <v>7</v>
@@ -10695,7 +10708,7 @@
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>31</v>
@@ -10703,14 +10716,14 @@
       <c r="D40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="15">
         <v>20</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="15">
         <v>120</v>
       </c>
-      <c r="G40" s="25" t="s">
-        <v>135</v>
+      <c r="G40" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y40" s="3" t="s">
         <v>13</v>
@@ -10719,12 +10732,12 @@
         <v>14</v>
       </c>
       <c r="AA40" s="3">
-        <v>-0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
@@ -10732,14 +10745,14 @@
       <c r="D41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="14">
         <v>10</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="14">
         <v>130</v>
       </c>
-      <c r="G41" s="24" t="s">
-        <v>135</v>
+      <c r="G41" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y41" t="s">
         <v>14</v>
@@ -10753,7 +10766,7 @@
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>34</v>
@@ -10761,14 +10774,14 @@
       <c r="D42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="15">
         <v>10</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="15">
         <v>120</v>
       </c>
-      <c r="G42" s="25" t="s">
-        <v>135</v>
+      <c r="G42" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>15</v>
@@ -10777,12 +10790,12 @@
         <v>13</v>
       </c>
       <c r="AA42" s="3">
-        <v>-0.15</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>35</v>
@@ -10790,14 +10803,14 @@
       <c r="D43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E43" s="24">
+      <c r="E43" s="14">
         <v>10</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="14">
         <v>110</v>
       </c>
-      <c r="G43" s="24" t="s">
-        <v>135</v>
+      <c r="G43" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y43" t="s">
         <v>16</v>
@@ -10811,7 +10824,7 @@
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>32</v>
@@ -10819,14 +10832,14 @@
       <c r="D44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="15">
         <v>20</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="15">
         <v>100</v>
       </c>
-      <c r="G44" s="25" t="s">
-        <v>135</v>
+      <c r="G44" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>18</v>
@@ -10841,19 +10854,19 @@
     <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="14">
         <v>40</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="14">
         <v>100</v>
       </c>
-      <c r="G45" s="24" t="s">
-        <v>206</v>
+      <c r="G45" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y45" t="s">
         <v>19</v>
@@ -10866,21 +10879,23 @@
       </c>
     </row>
     <row r="46" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B46" s="5"/>
+      <c r="B46" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="25">
-        <v>110</v>
-      </c>
-      <c r="F46" s="25">
-        <v>110</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>135</v>
+      <c r="E46" s="15">
+        <v>115</v>
+      </c>
+      <c r="F46" s="15">
+        <v>105</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>21</v>
@@ -10893,21 +10908,23 @@
       </c>
     </row>
     <row r="47" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="24">
-        <v>45</v>
-      </c>
-      <c r="F47" s="24">
-        <v>105</v>
-      </c>
-      <c r="G47" s="24" t="s">
-        <v>135</v>
+      <c r="E47" s="14">
+        <v>35</v>
+      </c>
+      <c r="F47" s="14">
+        <v>90</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y47" t="s">
         <v>22</v>
@@ -10920,21 +10937,23 @@
       </c>
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B48" s="5"/>
+      <c r="B48" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="C48" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E48" s="25">
-        <v>55</v>
-      </c>
-      <c r="F48" s="25">
-        <v>105</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>135</v>
+      <c r="E48" s="15">
+        <v>20</v>
+      </c>
+      <c r="F48" s="15">
+        <v>90</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>24</v>
@@ -10947,19 +10966,21 @@
       </c>
     </row>
     <row r="49" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="14">
         <v>90</v>
       </c>
-      <c r="F49" s="24">
-        <v>115</v>
-      </c>
-      <c r="G49" s="24" t="s">
-        <v>206</v>
+      <c r="F49" s="14">
+        <v>110</v>
+      </c>
+      <c r="G49" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y49" t="s">
         <v>25</v>
@@ -10972,21 +10993,23 @@
       </c>
     </row>
     <row r="50" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="C50" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="25">
+      <c r="E50" s="15">
         <v>90</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="15">
         <v>125</v>
       </c>
-      <c r="G50" s="25" t="s">
-        <v>206</v>
+      <c r="G50" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y50" s="3" t="s">
         <v>26</v>
@@ -10999,21 +11022,23 @@
       </c>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C51" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E51" s="24">
-        <v>55</v>
-      </c>
-      <c r="F51" s="24">
-        <v>140</v>
-      </c>
-      <c r="G51" s="24" t="s">
-        <v>206</v>
+      <c r="E51" s="14">
+        <v>58</v>
+      </c>
+      <c r="F51" s="14">
+        <v>138</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y51" t="s">
         <v>27</v>
@@ -11026,21 +11051,23 @@
       </c>
     </row>
     <row r="52" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B52" s="5"/>
+      <c r="B52" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="C52" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="25">
-        <v>55</v>
-      </c>
-      <c r="F52" s="25">
-        <v>120</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>206</v>
+      <c r="E52" s="15">
+        <v>58</v>
+      </c>
+      <c r="F52" s="15">
+        <v>115</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>28</v>
@@ -11055,19 +11082,19 @@
     <row r="53" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="24">
-        <v>130</v>
-      </c>
-      <c r="F53" s="24">
+      <c r="E53" s="14">
+        <v>132</v>
+      </c>
+      <c r="F53" s="14">
         <v>115</v>
       </c>
-      <c r="G53" s="24" t="s">
-        <v>135</v>
+      <c r="G53" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y53" t="s">
         <v>28</v>
@@ -11080,21 +11107,23 @@
       </c>
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B54" s="5"/>
+      <c r="B54" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="C54" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="15">
+        <v>115</v>
+      </c>
+      <c r="F54" s="15">
         <v>110</v>
       </c>
-      <c r="F54" s="25">
-        <v>115</v>
-      </c>
-      <c r="G54" s="25" t="s">
-        <v>206</v>
+      <c r="G54" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>30</v>
@@ -11107,21 +11136,23 @@
       </c>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C55" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="24">
-        <v>110</v>
-      </c>
-      <c r="F55" s="24">
+      <c r="E55" s="14">
+        <v>115</v>
+      </c>
+      <c r="F55" s="14">
         <v>125</v>
       </c>
-      <c r="G55" s="24" t="s">
-        <v>135</v>
+      <c r="G55" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y55" t="s">
         <v>31</v>
@@ -11136,19 +11167,19 @@
     <row r="56" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="15">
         <v>90</v>
       </c>
-      <c r="F56" s="25">
-        <v>150</v>
-      </c>
-      <c r="G56" s="25" t="s">
-        <v>206</v>
+      <c r="F56" s="15">
+        <v>152</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y56" s="3" t="s">
         <v>23</v>
@@ -11163,19 +11194,19 @@
     <row r="57" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E57" s="24">
+      <c r="E57" s="14">
         <v>70</v>
       </c>
-      <c r="F57" s="24">
-        <v>150</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>206</v>
+      <c r="F57" s="14">
+        <v>152</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y57" t="s">
         <v>33</v>
@@ -11190,19 +11221,19 @@
     <row r="58" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="15">
         <v>70</v>
       </c>
-      <c r="F58" s="25">
-        <v>140</v>
-      </c>
-      <c r="G58" s="25" t="s">
-        <v>206</v>
+      <c r="F58" s="15">
+        <v>145</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>34</v>
@@ -11217,19 +11248,19 @@
     <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="14">
         <v>90</v>
       </c>
-      <c r="F59" s="24">
-        <v>140</v>
-      </c>
-      <c r="G59" s="24" t="s">
-        <v>206</v>
+      <c r="F59" s="14">
+        <v>138</v>
+      </c>
+      <c r="G59" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y59" t="s">
         <v>35</v>
@@ -11244,19 +11275,19 @@
     <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="25">
-        <v>110</v>
-      </c>
-      <c r="F60" s="25">
-        <v>140</v>
-      </c>
-      <c r="G60" s="25" t="s">
-        <v>206</v>
+      <c r="E60" s="15">
+        <v>115</v>
+      </c>
+      <c r="F60" s="15">
+        <v>145</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>32</v>
@@ -11271,19 +11302,19 @@
     <row r="61" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E61" s="24">
-        <v>125</v>
-      </c>
-      <c r="F61" s="24">
-        <v>150</v>
-      </c>
-      <c r="G61" s="24" t="s">
-        <v>206</v>
+      <c r="E61" s="14">
+        <v>115</v>
+      </c>
+      <c r="F61" s="14">
+        <v>152</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y61" t="s">
         <v>36</v>
@@ -11301,14 +11332,14 @@
       <c r="D62" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="15">
         <v>130</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F62" s="15">
         <v>95</v>
       </c>
-      <c r="G62" s="25" t="s">
-        <v>135</v>
+      <c r="G62" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>37</v>
@@ -11326,14 +11357,14 @@
       <c r="D63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="14">
         <v>140</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F63" s="14">
         <v>100</v>
       </c>
-      <c r="G63" s="24" t="s">
-        <v>135</v>
+      <c r="G63" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y63" t="s">
         <v>38</v>
@@ -11351,14 +11382,14 @@
       <c r="D64" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E64" s="15">
         <v>140</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F64" s="15">
         <v>120</v>
       </c>
-      <c r="G64" s="25" t="s">
-        <v>135</v>
+      <c r="G64" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y64" s="3" t="s">
         <v>18</v>
@@ -11373,19 +11404,19 @@
     <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="24">
+      <c r="E65" s="14">
         <v>145</v>
       </c>
-      <c r="F65" s="24">
+      <c r="F65" s="14">
         <v>125</v>
       </c>
-      <c r="G65" s="24" t="s">
-        <v>135</v>
+      <c r="G65" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y65" t="s">
         <v>39</v>
@@ -11400,19 +11431,19 @@
     <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E66" s="15">
         <v>150</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F66" s="15">
         <v>120</v>
       </c>
-      <c r="G66" s="25" t="s">
-        <v>135</v>
+      <c r="G66" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>40</v>
@@ -11430,14 +11461,14 @@
       <c r="D67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E67" s="14">
         <v>140</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F67" s="14">
         <v>130</v>
       </c>
-      <c r="G67" s="24" t="s">
-        <v>135</v>
+      <c r="G67" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y67" t="s">
         <v>7</v>
@@ -11455,14 +11486,14 @@
       <c r="D68" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E68" s="15">
         <v>140</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F68" s="15">
         <v>140</v>
       </c>
-      <c r="G68" s="25" t="s">
-        <v>135</v>
+      <c r="G68" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y68" s="3" t="s">
         <v>2</v>
@@ -11477,19 +11508,19 @@
     <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E69" s="24">
+      <c r="E69" s="14">
         <v>120</v>
       </c>
-      <c r="F69" s="24">
+      <c r="F69" s="14">
         <v>165</v>
       </c>
-      <c r="G69" s="24" t="s">
-        <v>206</v>
+      <c r="G69" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y69" t="s">
         <v>40</v>
@@ -11507,14 +11538,14 @@
       <c r="D70" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E70" s="15">
         <v>120</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F70" s="15">
         <v>172</v>
       </c>
-      <c r="G70" s="25" t="s">
-        <v>206</v>
+      <c r="G70" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y70" s="3" t="s">
         <v>19</v>
@@ -11532,14 +11563,14 @@
       <c r="D71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E71" s="24">
+      <c r="E71" s="14">
         <v>120</v>
       </c>
-      <c r="F71" s="24">
+      <c r="F71" s="14">
         <v>180</v>
       </c>
-      <c r="G71" s="24" t="s">
-        <v>206</v>
+      <c r="G71" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y71" t="s">
         <v>18</v>
@@ -11557,14 +11588,14 @@
       <c r="D72" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E72" s="15">
         <v>90</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F72" s="15">
         <v>180</v>
       </c>
-      <c r="G72" s="25" t="s">
-        <v>206</v>
+      <c r="G72" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>42</v>
@@ -11577,21 +11608,23 @@
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B73" s="2"/>
+      <c r="B73" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C73" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="14">
         <v>100</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="14">
         <v>170</v>
       </c>
-      <c r="G73" s="24" t="s">
-        <v>135</v>
+      <c r="G73" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y73" t="s">
         <v>43</v>
@@ -11606,19 +11639,19 @@
     <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E74" s="15">
         <v>90</v>
       </c>
-      <c r="F74" s="25">
+      <c r="F74" s="15">
         <v>160</v>
       </c>
-      <c r="G74" s="25" t="s">
-        <v>206</v>
+      <c r="G74" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y74" s="3" t="s">
         <v>20</v>
@@ -11631,21 +11664,23 @@
       </c>
     </row>
     <row r="75" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B75" s="2"/>
+      <c r="B75" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C75" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="14">
         <v>90</v>
       </c>
-      <c r="F75" s="24">
+      <c r="F75" s="14">
         <v>170</v>
       </c>
-      <c r="G75" s="24" t="s">
-        <v>135</v>
+      <c r="G75" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y75" t="s">
         <v>20</v>
@@ -11658,21 +11693,23 @@
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B76" s="5"/>
+      <c r="B76" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="C76" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E76" s="25">
+      <c r="E76" s="15">
         <v>80</v>
       </c>
-      <c r="F76" s="25">
+      <c r="F76" s="15">
         <v>170</v>
       </c>
-      <c r="G76" s="25" t="s">
-        <v>135</v>
+      <c r="G76" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>20</v>
@@ -11687,25 +11724,25 @@
     <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="14">
         <v>150</v>
       </c>
-      <c r="F77" s="24">
+      <c r="F77" s="14">
         <v>130</v>
       </c>
-      <c r="G77" s="24" t="s">
-        <v>135</v>
+      <c r="G77" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y77" t="s">
         <v>45</v>
       </c>
       <c r="Z77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA77">
         <v>0</v>
@@ -11714,19 +11751,19 @@
     <row r="78" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E78" s="15">
         <v>160</v>
       </c>
-      <c r="F78" s="25">
+      <c r="F78" s="15">
         <v>130</v>
       </c>
-      <c r="G78" s="25" t="s">
-        <v>135</v>
+      <c r="G78" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y78" s="3" t="s">
         <v>45</v>
@@ -11741,19 +11778,19 @@
     <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="24">
+      <c r="E79" s="14">
         <v>170</v>
       </c>
-      <c r="F79" s="24">
+      <c r="F79" s="14">
         <v>120</v>
       </c>
-      <c r="G79" s="24" t="s">
-        <v>135</v>
+      <c r="G79" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y79" t="s">
         <v>47</v>
@@ -11768,25 +11805,25 @@
     <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="25">
+        <v>157</v>
+      </c>
+      <c r="E80" s="15">
         <v>180</v>
       </c>
-      <c r="F80" s="25">
+      <c r="F80" s="15">
         <v>130</v>
       </c>
-      <c r="G80" s="25" t="s">
-        <v>135</v>
+      <c r="G80" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y80" s="3" t="s">
         <v>47</v>
       </c>
       <c r="Z80" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA80" s="3">
         <v>0</v>
@@ -11800,14 +11837,14 @@
       <c r="D81" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E81" s="24">
+      <c r="E81" s="14">
         <v>160</v>
       </c>
-      <c r="F81" s="24">
+      <c r="F81" s="14">
         <v>140</v>
       </c>
-      <c r="G81" s="24" t="s">
-        <v>135</v>
+      <c r="G81" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y81" t="s">
         <v>20</v>
@@ -11820,21 +11857,23 @@
       </c>
     </row>
     <row r="82" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B82" s="5"/>
+      <c r="B82" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="C82" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="25">
+      <c r="E82" s="15">
         <v>160</v>
       </c>
-      <c r="F82" s="25">
+      <c r="F82" s="15">
         <v>155</v>
       </c>
-      <c r="G82" s="25" t="s">
-        <v>135</v>
+      <c r="G82" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y82" s="3" t="s">
         <v>49</v>
@@ -11847,21 +11886,23 @@
       </c>
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="C83" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E83" s="24">
-        <v>175</v>
-      </c>
-      <c r="F83" s="24">
+      <c r="E83" s="14">
         <v>160</v>
       </c>
-      <c r="G83" s="24" t="s">
-        <v>135</v>
+      <c r="F83" s="14">
+        <v>165</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y83" t="s">
         <v>49</v>
@@ -11874,21 +11915,23 @@
       </c>
     </row>
     <row r="84" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B84" s="5"/>
+      <c r="B84" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="C84" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E84" s="25">
-        <v>180</v>
-      </c>
-      <c r="F84" s="25">
+        <v>241</v>
+      </c>
+      <c r="E84" s="15">
+        <v>170</v>
+      </c>
+      <c r="F84" s="15">
         <v>155</v>
       </c>
-      <c r="G84" s="25" t="s">
-        <v>135</v>
+      <c r="G84" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y84" s="3" t="s">
         <v>49</v>
@@ -11903,19 +11946,19 @@
     <row r="85" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E85" s="24">
+      <c r="E85" s="14">
         <v>150</v>
       </c>
-      <c r="F85" s="24">
+      <c r="F85" s="14">
         <v>140</v>
       </c>
-      <c r="G85" s="24" t="s">
-        <v>135</v>
+      <c r="G85" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y85" t="s">
         <v>52</v>
@@ -11935,14 +11978,14 @@
       <c r="D86" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E86" s="25">
+      <c r="E86" s="15">
         <v>155</v>
       </c>
-      <c r="F86" s="25">
+      <c r="F86" s="15">
         <v>145</v>
       </c>
-      <c r="G86" s="25" t="s">
-        <v>135</v>
+      <c r="G86" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y86" s="3" t="s">
         <v>53</v>
@@ -11962,14 +12005,14 @@
       <c r="D87" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E87" s="24">
+      <c r="E87" s="14">
         <v>140</v>
       </c>
-      <c r="F87" s="24">
+      <c r="F87" s="14">
         <v>150</v>
       </c>
-      <c r="G87" s="24" t="s">
-        <v>135</v>
+      <c r="G87" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y87" t="s">
         <v>54</v>
@@ -11984,25 +12027,25 @@
     <row r="88" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E88" s="25">
+      <c r="E88" s="15">
         <v>145</v>
       </c>
-      <c r="F88" s="25">
+      <c r="F88" s="15">
         <v>110</v>
       </c>
-      <c r="G88" s="25" t="s">
-        <v>135</v>
+      <c r="G88" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y88" s="3" t="s">
         <v>54</v>
       </c>
       <c r="Z88" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA88" s="3">
         <v>0</v>
@@ -12011,19 +12054,19 @@
     <row r="89" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E89" s="24">
+      <c r="E89" s="14">
         <v>150</v>
       </c>
-      <c r="F89" s="24">
+      <c r="F89" s="14">
         <v>100</v>
       </c>
-      <c r="G89" s="24" t="s">
-        <v>135</v>
+      <c r="G89" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y89" t="s">
         <v>54</v>
@@ -12038,19 +12081,19 @@
     <row r="90" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E90" s="25">
+      <c r="E90" s="15">
         <v>155</v>
       </c>
-      <c r="F90" s="25">
+      <c r="F90" s="15">
         <v>110</v>
       </c>
-      <c r="G90" s="25" t="s">
-        <v>135</v>
+      <c r="G90" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y90" s="3" t="s">
         <v>56</v>
@@ -12065,19 +12108,19 @@
     <row r="91" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E91" s="24">
+        <v>163</v>
+      </c>
+      <c r="E91" s="14">
         <v>155</v>
       </c>
-      <c r="F91" s="24">
+      <c r="F91" s="14">
         <v>95</v>
       </c>
-      <c r="G91" s="24" t="s">
-        <v>135</v>
+      <c r="G91" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y91" t="s">
         <v>57</v>
@@ -12090,48 +12133,52 @@
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B92" s="5"/>
+      <c r="B92" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="C92" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="25">
+      <c r="E92" s="15">
         <v>170</v>
       </c>
-      <c r="F92" s="25">
+      <c r="F92" s="15">
         <v>100</v>
       </c>
-      <c r="G92" s="25" t="s">
-        <v>135</v>
+      <c r="G92" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y92" s="3" t="s">
         <v>57</v>
       </c>
       <c r="Z92" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AA92" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="C93" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E93" s="24">
-        <v>180</v>
-      </c>
-      <c r="F93" s="24">
+        <v>166</v>
+      </c>
+      <c r="E93" s="14">
+        <v>185</v>
+      </c>
+      <c r="F93" s="14">
         <v>90</v>
       </c>
-      <c r="G93" s="24" t="s">
-        <v>135</v>
+      <c r="G93" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y93" t="s">
         <v>53</v>
@@ -12144,21 +12191,23 @@
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B94" s="5"/>
+      <c r="B94" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="C94" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E94" s="25">
-        <v>180</v>
-      </c>
-      <c r="F94" s="25">
+      <c r="E94" s="15">
+        <v>185</v>
+      </c>
+      <c r="F94" s="15">
         <v>100</v>
       </c>
-      <c r="G94" s="25" t="s">
-        <v>135</v>
+      <c r="G94" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>60</v>
@@ -12172,20 +12221,20 @@
     </row>
     <row r="95" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E95" s="24">
+      <c r="E95" s="14">
         <v>140</v>
       </c>
-      <c r="F95" s="24">
+      <c r="F95" s="14">
         <v>85</v>
       </c>
-      <c r="G95" s="24" t="s">
-        <v>135</v>
+      <c r="G95" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y95" t="s">
         <v>60</v>
@@ -12199,22 +12248,22 @@
     </row>
     <row r="96" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B96" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E96" s="25">
+      <c r="E96" s="15">
         <v>150.6</v>
       </c>
-      <c r="F96" s="25">
+      <c r="F96" s="15">
         <v>80.599999999999994</v>
       </c>
-      <c r="G96" s="25" t="s">
-        <v>135</v>
+      <c r="G96" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y96" s="3" t="s">
         <v>52</v>
@@ -12228,20 +12277,20 @@
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E97" s="24">
+      <c r="E97" s="14">
         <v>155</v>
       </c>
-      <c r="F97" s="24">
+      <c r="F97" s="14">
         <v>70</v>
       </c>
-      <c r="G97" s="24" t="s">
-        <v>135</v>
+      <c r="G97" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y97" t="s">
         <v>63</v>
@@ -12255,20 +12304,20 @@
     </row>
     <row r="98" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B98" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E98" s="25">
+      <c r="E98" s="15">
         <v>150.6</v>
       </c>
-      <c r="F98" s="25">
+      <c r="F98" s="15">
         <v>59.4</v>
       </c>
-      <c r="G98" s="25" t="s">
-        <v>135</v>
+      <c r="G98" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y98" s="3" t="s">
         <v>57</v>
@@ -12282,22 +12331,22 @@
     </row>
     <row r="99" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E99" s="24">
+      <c r="E99" s="14">
         <v>140</v>
       </c>
-      <c r="F99" s="24">
+      <c r="F99" s="14">
         <v>55</v>
       </c>
-      <c r="G99" s="24" t="s">
-        <v>135</v>
+      <c r="G99" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y99" t="s">
         <v>64</v>
@@ -12311,20 +12360,20 @@
     </row>
     <row r="100" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B100" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E100" s="25">
+      <c r="E100" s="15">
         <v>129.4</v>
       </c>
-      <c r="F100" s="25">
+      <c r="F100" s="15">
         <v>59.4</v>
       </c>
-      <c r="G100" s="25" t="s">
-        <v>135</v>
+      <c r="G100" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>65</v>
@@ -12338,20 +12387,20 @@
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E101" s="24">
+      <c r="E101" s="14">
         <v>125</v>
       </c>
-      <c r="F101" s="24">
+      <c r="F101" s="14">
         <v>70</v>
       </c>
-      <c r="G101" s="24" t="s">
-        <v>135</v>
+      <c r="G101" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y101" t="s">
         <v>66</v>
@@ -12365,20 +12414,20 @@
     </row>
     <row r="102" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B102" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E102" s="25">
+      <c r="E102" s="15">
         <v>129.4</v>
       </c>
-      <c r="F102" s="25">
+      <c r="F102" s="15">
         <v>80.599999999999994</v>
       </c>
-      <c r="G102" s="25" t="s">
-        <v>135</v>
+      <c r="G102" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y102" s="3" t="s">
         <v>66</v>
@@ -12393,19 +12442,19 @@
     <row r="103" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E103" s="24">
-        <v>100</v>
-      </c>
-      <c r="F103" s="24">
+      <c r="E103" s="14">
+        <v>105</v>
+      </c>
+      <c r="F103" s="14">
         <v>80</v>
       </c>
-      <c r="G103" s="24" t="s">
-        <v>135</v>
+      <c r="G103" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y103" t="s">
         <v>64</v>
@@ -12420,19 +12469,19 @@
     <row r="104" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B104" s="5"/>
       <c r="C104" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E104" s="25">
+      <c r="E104" s="15">
         <v>105</v>
       </c>
-      <c r="F104" s="25">
+      <c r="F104" s="15">
         <v>75</v>
       </c>
-      <c r="G104" s="25" t="s">
-        <v>135</v>
+      <c r="G104" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y104" s="3" t="s">
         <v>64</v>
@@ -12447,19 +12496,19 @@
     <row r="105" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E105" s="24">
-        <v>100</v>
-      </c>
-      <c r="F105" s="24">
-        <v>90</v>
-      </c>
-      <c r="G105" s="24" t="s">
-        <v>135</v>
+      <c r="E105" s="14">
+        <v>105</v>
+      </c>
+      <c r="F105" s="14">
+        <v>85</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y105" t="s">
         <v>69</v>
@@ -12473,22 +12522,22 @@
     </row>
     <row r="106" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B106" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E106" s="25">
+      <c r="E106" s="15">
         <v>80</v>
       </c>
-      <c r="F106" s="25">
+      <c r="F106" s="15">
         <v>60</v>
       </c>
-      <c r="G106" s="25" t="s">
-        <v>135</v>
+      <c r="G106" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y106" s="3" t="s">
         <v>70</v>
@@ -12501,21 +12550,23 @@
       </c>
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C107" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E107" s="24">
-        <v>82.5</v>
-      </c>
-      <c r="F107" s="24">
+      <c r="E107" s="14">
+        <v>85</v>
+      </c>
+      <c r="F107" s="14">
         <v>70</v>
       </c>
-      <c r="G107" s="24" t="s">
-        <v>135</v>
+      <c r="G107" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y107" t="s">
         <v>19</v>
@@ -12529,20 +12580,20 @@
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B108" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E108" s="25">
+      <c r="E108" s="15">
         <v>80</v>
       </c>
-      <c r="F108" s="25">
+      <c r="F108" s="15">
         <v>75</v>
       </c>
-      <c r="G108" s="25" t="s">
-        <v>135</v>
+      <c r="G108" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y108" s="3" t="s">
         <v>72</v>
@@ -12555,21 +12606,23 @@
       </c>
     </row>
     <row r="109" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C109" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E109" s="24">
-        <v>77.5</v>
-      </c>
-      <c r="F109" s="24">
+      <c r="E109" s="14">
+        <v>75</v>
+      </c>
+      <c r="F109" s="14">
         <v>70</v>
       </c>
-      <c r="G109" s="24" t="s">
-        <v>135</v>
+      <c r="G109" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y109" t="s">
         <v>72</v>
@@ -12587,14 +12640,14 @@
       <c r="D110" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="E110" s="25">
+      <c r="E110" s="15">
         <v>75</v>
       </c>
-      <c r="F110" s="25">
+      <c r="F110" s="15">
         <v>55</v>
       </c>
-      <c r="G110" s="25" t="s">
-        <v>135</v>
+      <c r="G110" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y110" s="3" t="s">
         <v>72</v>
@@ -12614,14 +12667,14 @@
       <c r="D111" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E111" s="24">
-        <v>70</v>
-      </c>
-      <c r="F111" s="24">
+      <c r="E111" s="14">
+        <v>65</v>
+      </c>
+      <c r="F111" s="14">
         <v>55</v>
       </c>
-      <c r="G111" s="24" t="s">
-        <v>135</v>
+      <c r="G111" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y111" t="s">
         <v>72</v>
@@ -12635,22 +12688,22 @@
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B112" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E112" s="25">
+      <c r="E112" s="15">
         <v>70</v>
       </c>
-      <c r="F112" s="25">
+      <c r="F112" s="15">
         <v>80</v>
       </c>
-      <c r="G112" s="25" t="s">
-        <v>135</v>
+      <c r="G112" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y112" s="3" t="s">
         <v>72</v>
@@ -12664,22 +12717,22 @@
     </row>
     <row r="113" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E113" s="24">
+      <c r="E113" s="14">
         <v>90</v>
       </c>
-      <c r="F113" s="24">
+      <c r="F113" s="14">
         <v>80</v>
       </c>
-      <c r="G113" s="24" t="s">
-        <v>135</v>
+      <c r="G113" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y113" t="s">
         <v>20</v>
@@ -12699,14 +12752,14 @@
       <c r="D114" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E114" s="25">
+      <c r="E114" s="15">
         <v>65</v>
       </c>
-      <c r="F114" s="25">
+      <c r="F114" s="15">
         <v>65</v>
       </c>
-      <c r="G114" s="25" t="s">
-        <v>135</v>
+      <c r="G114" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y114" s="3" t="s">
         <v>78</v>
@@ -12719,21 +12772,23 @@
       </c>
     </row>
     <row r="115" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="C115" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E115" s="24">
+      <c r="E115" s="14">
         <v>55</v>
       </c>
-      <c r="F115" s="24">
-        <v>75</v>
-      </c>
-      <c r="G115" s="24" t="s">
-        <v>135</v>
+      <c r="F115" s="14">
+        <v>70</v>
+      </c>
+      <c r="G115" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y115" t="s">
         <v>79</v>
@@ -12746,21 +12801,23 @@
       </c>
     </row>
     <row r="116" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B116" s="5"/>
+      <c r="B116" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="C116" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E116" s="25">
+      <c r="E116" s="15">
         <v>55</v>
       </c>
-      <c r="F116" s="25">
+      <c r="F116" s="15">
         <v>80</v>
       </c>
-      <c r="G116" s="25" t="s">
-        <v>135</v>
+      <c r="G116" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y116" s="3" t="s">
         <v>80</v>
@@ -12773,21 +12830,23 @@
       </c>
     </row>
     <row r="117" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B117" s="2"/>
+      <c r="B117" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="C117" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E117" s="24">
+      <c r="E117" s="14">
         <v>55</v>
       </c>
-      <c r="F117" s="24">
-        <v>85</v>
-      </c>
-      <c r="G117" s="24" t="s">
-        <v>135</v>
+      <c r="F117" s="14">
+        <v>90</v>
+      </c>
+      <c r="G117" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y117" t="s">
         <v>81</v>
@@ -12805,14 +12864,14 @@
       <c r="D118" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E118" s="25">
+      <c r="E118" s="15">
         <v>165</v>
       </c>
-      <c r="F118" s="25">
-        <v>60</v>
-      </c>
-      <c r="G118" s="25" t="s">
-        <v>135</v>
+      <c r="F118" s="15">
+        <v>59.4</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y118" s="3" t="s">
         <v>81</v>
@@ -12825,21 +12884,23 @@
       </c>
     </row>
     <row r="119" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C119" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E119" s="24">
+      <c r="E119" s="14">
         <v>160</v>
       </c>
-      <c r="F119" s="24">
+      <c r="F119" s="14">
         <v>40</v>
       </c>
-      <c r="G119" s="24" t="s">
-        <v>135</v>
+      <c r="G119" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y119" t="s">
         <v>83</v>
@@ -12852,21 +12913,23 @@
       </c>
     </row>
     <row r="120" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B120" s="5"/>
+      <c r="B120" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C120" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E120" s="25">
+      <c r="E120" s="15">
         <v>150</v>
       </c>
-      <c r="F120" s="25">
+      <c r="F120" s="15">
         <v>40</v>
       </c>
-      <c r="G120" s="25" t="s">
-        <v>135</v>
+      <c r="G120" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y120" s="3" t="s">
         <v>83</v>
@@ -12879,48 +12942,52 @@
       </c>
     </row>
     <row r="121" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B121" s="2"/>
+      <c r="B121" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C121" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E121" s="24">
+      <c r="E121" s="14">
         <v>160</v>
       </c>
-      <c r="F121" s="24">
+      <c r="F121" s="14">
         <v>20</v>
       </c>
-      <c r="G121" s="24" t="s">
-        <v>135</v>
+      <c r="G121" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y121" t="s">
         <v>85</v>
       </c>
       <c r="Z121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AA121">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B122" s="5"/>
+      <c r="B122" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C122" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E122" s="25">
+        <v>179</v>
+      </c>
+      <c r="E122" s="15">
         <v>160</v>
       </c>
-      <c r="F122" s="25">
+      <c r="F122" s="15">
         <v>10</v>
       </c>
-      <c r="G122" s="25" t="s">
-        <v>135</v>
+      <c r="G122" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y122" s="3" t="s">
         <v>85</v>
@@ -12933,21 +13000,23 @@
       </c>
     </row>
     <row r="123" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C123" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E123" s="24">
+      <c r="E123" s="14">
         <v>180</v>
       </c>
-      <c r="F123" s="24">
+      <c r="F123" s="14">
         <v>20</v>
       </c>
-      <c r="G123" s="24" t="s">
-        <v>135</v>
+      <c r="G123" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y123" t="s">
         <v>83</v>
@@ -12960,21 +13029,23 @@
       </c>
     </row>
     <row r="124" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B124" s="5"/>
+      <c r="B124" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C124" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E124" s="25">
-        <v>165</v>
-      </c>
-      <c r="F124" s="25">
+      <c r="E124" s="15">
+        <v>170</v>
+      </c>
+      <c r="F124" s="15">
         <v>30</v>
       </c>
-      <c r="G124" s="25" t="s">
-        <v>135</v>
+      <c r="G124" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y124" s="3" t="s">
         <v>83</v>
@@ -12987,21 +13058,23 @@
       </c>
     </row>
     <row r="125" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C125" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E125" s="24">
+      <c r="E125" s="14">
         <v>180</v>
       </c>
-      <c r="F125" s="24">
+      <c r="F125" s="14">
         <v>40</v>
       </c>
-      <c r="G125" s="24" t="s">
-        <v>135</v>
+      <c r="G125" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y125" t="s">
         <v>88</v>
@@ -13014,21 +13087,23 @@
       </c>
     </row>
     <row r="126" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B126" s="5"/>
+      <c r="B126" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C126" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E126" s="25">
+      <c r="E126" s="15">
         <v>195</v>
       </c>
-      <c r="F126" s="25">
+      <c r="F126" s="15">
         <v>40</v>
       </c>
-      <c r="G126" s="25" t="s">
-        <v>135</v>
+      <c r="G126" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y126" s="3" t="s">
         <v>88</v>
@@ -13041,21 +13116,23 @@
       </c>
     </row>
     <row r="127" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C127" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E127" s="24">
+      <c r="E127" s="14">
         <v>165</v>
       </c>
-      <c r="F127" s="24">
+      <c r="F127" s="14">
         <v>50</v>
       </c>
-      <c r="G127" s="24" t="s">
-        <v>135</v>
+      <c r="G127" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y127" t="s">
         <v>88</v>
@@ -13068,21 +13145,23 @@
       </c>
     </row>
     <row r="128" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B128" s="5"/>
+      <c r="B128" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C128" s="5" t="s">
         <v>91</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E128" s="25">
+      <c r="E128" s="15">
         <v>180</v>
       </c>
-      <c r="F128" s="25">
+      <c r="F128" s="15">
         <v>50</v>
       </c>
-      <c r="G128" s="25" t="s">
-        <v>135</v>
+      <c r="G128" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y128" s="3" t="s">
         <v>91</v>
@@ -13095,21 +13174,23 @@
       </c>
     </row>
     <row r="129" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="C129" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E129" s="24">
+      <c r="E129" s="14">
         <v>180</v>
       </c>
-      <c r="F129" s="24">
+      <c r="F129" s="14">
         <v>60</v>
       </c>
-      <c r="G129" s="24" t="s">
-        <v>135</v>
+      <c r="G129" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y129" t="s">
         <v>92</v>
@@ -13122,21 +13203,23 @@
       </c>
     </row>
     <row r="130" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B130" s="5"/>
+      <c r="B130" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="C130" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E130" s="25">
+      <c r="E130" s="15">
         <v>180</v>
       </c>
-      <c r="F130" s="25">
+      <c r="F130" s="15">
         <v>70</v>
       </c>
-      <c r="G130" s="25" t="s">
-        <v>135</v>
+      <c r="G130" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y130" s="3" t="s">
         <v>81</v>
@@ -13151,19 +13234,19 @@
     <row r="131" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E131" s="24">
-        <v>145</v>
-      </c>
-      <c r="F131" s="24">
+      <c r="E131" s="14">
+        <v>150</v>
+      </c>
+      <c r="F131" s="14">
         <v>30</v>
       </c>
-      <c r="G131" s="24" t="s">
-        <v>135</v>
+      <c r="G131" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y131" t="s">
         <v>94</v>
@@ -13183,14 +13266,14 @@
       <c r="D132" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E132" s="25">
+      <c r="E132" s="15">
         <v>150</v>
       </c>
-      <c r="F132" s="25">
+      <c r="F132" s="15">
         <v>20</v>
       </c>
-      <c r="G132" s="25" t="s">
-        <v>135</v>
+      <c r="G132" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y132" s="3" t="s">
         <v>95</v>
@@ -13205,19 +13288,19 @@
     <row r="133" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E133" s="24">
+      <c r="E133" s="14">
         <v>140</v>
       </c>
-      <c r="F133" s="24">
+      <c r="F133" s="14">
         <v>20</v>
       </c>
-      <c r="G133" s="24" t="s">
-        <v>135</v>
+      <c r="G133" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y133" t="s">
         <v>94</v>
@@ -13237,14 +13320,14 @@
       <c r="D134" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E134" s="25">
+      <c r="E134" s="15">
         <v>140</v>
       </c>
-      <c r="F134" s="25">
+      <c r="F134" s="15">
         <v>10</v>
       </c>
-      <c r="G134" s="25" t="s">
-        <v>135</v>
+      <c r="G134" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y134" s="3" t="s">
         <v>97</v>
@@ -13259,19 +13342,19 @@
     <row r="135" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E135" s="24">
-        <v>130</v>
-      </c>
-      <c r="F135" s="24">
+      <c r="E135" s="14">
+        <v>127.5</v>
+      </c>
+      <c r="F135" s="14">
         <v>40</v>
       </c>
-      <c r="G135" s="24" t="s">
-        <v>135</v>
+      <c r="G135" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y135" t="s">
         <v>94</v>
@@ -13291,14 +13374,14 @@
       <c r="D136" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E136" s="25">
-        <v>130</v>
-      </c>
-      <c r="F136" s="25">
+      <c r="E136" s="15">
+        <v>127.5</v>
+      </c>
+      <c r="F136" s="15">
         <v>30</v>
       </c>
-      <c r="G136" s="25" t="s">
-        <v>135</v>
+      <c r="G136" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y136" s="3" t="s">
         <v>99</v>
@@ -13316,22 +13399,22 @@
         <v>59</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E137" s="24">
+        <v>242</v>
+      </c>
+      <c r="E137" s="14">
         <v>135</v>
       </c>
-      <c r="F137" s="24">
+      <c r="F137" s="14">
         <v>35</v>
       </c>
-      <c r="G137" s="24" t="s">
-        <v>135</v>
+      <c r="G137" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y137" t="s">
         <v>99</v>
       </c>
       <c r="Z137" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AA137">
         <v>0</v>
@@ -13340,46 +13423,48 @@
     <row r="138" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B138" s="5"/>
       <c r="C138" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E138" s="25">
+        <v>189</v>
+      </c>
+      <c r="E138" s="15">
         <v>120</v>
       </c>
-      <c r="F138" s="25">
+      <c r="F138" s="15">
         <v>35</v>
       </c>
-      <c r="G138" s="25" t="s">
-        <v>135</v>
+      <c r="G138" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y138" s="3" t="s">
         <v>99</v>
       </c>
       <c r="Z138" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AA138" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B139" s="2"/>
+      <c r="B139" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C139" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E139" s="24">
+      <c r="E139" s="14">
         <v>105</v>
       </c>
-      <c r="F139" s="24">
+      <c r="F139" s="14">
         <v>60</v>
       </c>
-      <c r="G139" s="24" t="s">
-        <v>135</v>
+      <c r="G139" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y139" t="s">
         <v>94</v>
@@ -13392,21 +13477,23 @@
       </c>
     </row>
     <row r="140" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B140" s="5"/>
+      <c r="B140" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="C140" s="5" t="s">
         <v>103</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E140" s="25">
+      <c r="E140" s="15">
         <v>105</v>
       </c>
-      <c r="F140" s="25">
-        <v>65</v>
-      </c>
-      <c r="G140" s="25" t="s">
-        <v>135</v>
+      <c r="F140" s="15">
+        <v>70</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y140" s="3" t="s">
         <v>101</v>
@@ -13419,21 +13506,23 @@
       </c>
     </row>
     <row r="141" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B141" s="2"/>
+      <c r="B141" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C141" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E141" s="24">
+      <c r="E141" s="14">
         <v>115</v>
       </c>
-      <c r="F141" s="24">
+      <c r="F141" s="14">
         <v>50</v>
       </c>
-      <c r="G141" s="24" t="s">
-        <v>135</v>
+      <c r="G141" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y141" t="s">
         <v>102</v>
@@ -13446,21 +13535,23 @@
       </c>
     </row>
     <row r="142" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B142" s="5"/>
+      <c r="B142" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="C142" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E142" s="25">
+        <v>192</v>
+      </c>
+      <c r="E142" s="15">
         <v>105</v>
       </c>
-      <c r="F142" s="25">
+      <c r="F142" s="15">
         <v>40</v>
       </c>
-      <c r="G142" s="25" t="s">
-        <v>135</v>
+      <c r="G142" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y142" s="3" t="s">
         <v>102</v>
@@ -13473,78 +13564,84 @@
       </c>
     </row>
     <row r="143" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C143" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E143" s="24">
+        <v>194</v>
+      </c>
+      <c r="E143" s="14">
         <v>120</v>
       </c>
-      <c r="F143" s="24">
+      <c r="F143" s="14">
         <v>20</v>
       </c>
-      <c r="G143" s="24" t="s">
-        <v>135</v>
+      <c r="G143" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y143" t="s">
         <v>102</v>
       </c>
       <c r="Z143" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA143">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B144" s="5"/>
+      <c r="B144" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="C144" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E144" s="25">
+      <c r="E144" s="15">
         <v>105</v>
       </c>
-      <c r="F144" s="25">
+      <c r="F144" s="15">
         <v>10</v>
       </c>
-      <c r="G144" s="25" t="s">
-        <v>135</v>
+      <c r="G144" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y144" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z144" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA144" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B145" s="2"/>
+      <c r="B145" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C145" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E145" s="24">
+      <c r="E145" s="14">
         <v>90</v>
       </c>
-      <c r="F145" s="24">
+      <c r="F145" s="14">
         <v>60</v>
       </c>
-      <c r="G145" s="24" t="s">
-        <v>135</v>
+      <c r="G145" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y145" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z145" t="s">
         <v>105</v>
@@ -13554,21 +13651,23 @@
       </c>
     </row>
     <row r="146" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B146" s="5"/>
+      <c r="B146" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="C146" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E146" s="25">
+      <c r="E146" s="15">
         <v>90</v>
       </c>
-      <c r="F146" s="25">
+      <c r="F146" s="15">
         <v>50</v>
       </c>
-      <c r="G146" s="25" t="s">
-        <v>135</v>
+      <c r="G146" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y146" s="3" t="s">
         <v>102</v>
@@ -13581,19 +13680,21 @@
       </c>
     </row>
     <row r="147" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B147" s="2"/>
+      <c r="B147" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E147" s="24">
+      <c r="E147" s="14">
         <v>90</v>
       </c>
-      <c r="F147" s="24">
+      <c r="F147" s="14">
         <v>40</v>
       </c>
-      <c r="G147" s="24" t="s">
-        <v>135</v>
+      <c r="G147" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y147" t="s">
         <v>106</v>
@@ -13606,19 +13707,21 @@
       </c>
     </row>
     <row r="148" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B148" s="5"/>
+      <c r="B148" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E148" s="25">
+      <c r="E148" s="15">
         <v>90</v>
       </c>
-      <c r="F148" s="25">
+      <c r="F148" s="15">
         <v>20</v>
       </c>
-      <c r="G148" s="25" t="s">
-        <v>135</v>
+      <c r="G148" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y148" s="3" t="s">
         <v>107</v>
@@ -13631,21 +13734,23 @@
       </c>
     </row>
     <row r="149" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B149" s="2"/>
+      <c r="B149" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C149" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E149" s="24">
+      <c r="E149" s="14">
         <v>40</v>
       </c>
-      <c r="F149" s="24">
+      <c r="F149" s="14">
         <v>70</v>
       </c>
-      <c r="G149" s="24" t="s">
-        <v>135</v>
+      <c r="G149" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y149" t="s">
         <v>108</v>
@@ -13658,19 +13763,21 @@
       </c>
     </row>
     <row r="150" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B150" s="5"/>
+      <c r="B150" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E150" s="25">
+      <c r="E150" s="15">
         <v>40</v>
       </c>
-      <c r="F150" s="25">
+      <c r="F150" s="15">
         <v>65</v>
       </c>
-      <c r="G150" s="25" t="s">
-        <v>135</v>
+      <c r="G150" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y150" s="3" t="s">
         <v>101</v>
@@ -13683,21 +13790,23 @@
       </c>
     </row>
     <row r="151" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B151" s="2"/>
+      <c r="B151" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C151" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E151" s="24">
+      <c r="E151" s="14">
         <v>40</v>
       </c>
-      <c r="F151" s="24">
+      <c r="F151" s="14">
         <v>60</v>
       </c>
-      <c r="G151" s="24" t="s">
-        <v>135</v>
+      <c r="G151" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y151" t="s">
         <v>110</v>
@@ -13710,21 +13819,23 @@
       </c>
     </row>
     <row r="152" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B152" s="5"/>
+      <c r="B152" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C152" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E152" s="25">
+      <c r="E152" s="15">
         <v>40</v>
       </c>
-      <c r="F152" s="25">
+      <c r="F152" s="15">
         <v>50</v>
       </c>
-      <c r="G152" s="25" t="s">
-        <v>135</v>
+      <c r="G152" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y152" s="3" t="s">
         <v>111</v>
@@ -13737,21 +13848,23 @@
       </c>
     </row>
     <row r="153" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C153" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E153" s="24">
+        <v>197</v>
+      </c>
+      <c r="E153" s="14">
         <v>55</v>
       </c>
-      <c r="F153" s="24">
+      <c r="F153" s="14">
         <v>50</v>
       </c>
-      <c r="G153" s="24" t="s">
-        <v>135</v>
+      <c r="G153" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y153" t="s">
         <v>111</v>
@@ -13764,21 +13877,23 @@
       </c>
     </row>
     <row r="154" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B154" s="5"/>
+      <c r="B154" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C154" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E154" s="25">
+      <c r="E154" s="15">
         <v>40</v>
       </c>
-      <c r="F154" s="25">
+      <c r="F154" s="15">
         <v>40</v>
       </c>
-      <c r="G154" s="25" t="s">
-        <v>135</v>
+      <c r="G154" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y154" s="3" t="s">
         <v>112</v>
@@ -13791,19 +13906,21 @@
       </c>
     </row>
     <row r="155" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B155" s="2"/>
+      <c r="B155" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E155" s="24">
+      <c r="E155" s="14">
         <v>40</v>
       </c>
-      <c r="F155" s="24">
+      <c r="F155" s="14">
         <v>20</v>
       </c>
-      <c r="G155" s="24" t="s">
-        <v>135</v>
+      <c r="G155" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y155" t="s">
         <v>112</v>
@@ -13816,21 +13933,23 @@
       </c>
     </row>
     <row r="156" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B156" s="5"/>
+      <c r="B156" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C156" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E156" s="25">
+      <c r="E156" s="15">
         <v>30</v>
       </c>
-      <c r="F156" s="25">
+      <c r="F156" s="15">
         <v>50</v>
       </c>
-      <c r="G156" s="25" t="s">
-        <v>135</v>
+      <c r="G156" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y156" s="3" t="s">
         <v>112</v>
@@ -13843,21 +13962,23 @@
       </c>
     </row>
     <row r="157" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B157" s="2"/>
+      <c r="B157" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C157" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E157" s="24">
-        <v>20</v>
-      </c>
-      <c r="F157" s="24">
+        <v>279</v>
+      </c>
+      <c r="E157" s="14">
+        <v>15</v>
+      </c>
+      <c r="F157" s="14">
         <v>60</v>
       </c>
-      <c r="G157" s="24" t="s">
-        <v>135</v>
+      <c r="G157" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y157" t="s">
         <v>13</v>
@@ -13870,21 +13991,23 @@
       </c>
     </row>
     <row r="158" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B158" s="5"/>
+      <c r="B158" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="C158" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E158" s="25">
-        <v>20</v>
-      </c>
-      <c r="F158" s="25">
+        <v>202</v>
+      </c>
+      <c r="E158" s="15">
+        <v>15</v>
+      </c>
+      <c r="F158" s="15">
         <v>50</v>
       </c>
-      <c r="G158" s="25" t="s">
-        <v>135</v>
+      <c r="G158" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y158" s="3" t="s">
         <v>13</v>
@@ -13897,21 +14020,23 @@
       </c>
     </row>
     <row r="159" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B159" s="2"/>
+      <c r="B159" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="C159" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E159" s="24">
-        <v>20</v>
-      </c>
-      <c r="F159" s="24">
+        <v>200</v>
+      </c>
+      <c r="E159" s="14">
+        <v>15</v>
+      </c>
+      <c r="F159" s="14">
         <v>70</v>
       </c>
-      <c r="G159" s="24" t="s">
-        <v>135</v>
+      <c r="G159" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="Y159" t="s">
         <v>13</v>
@@ -13924,21 +14049,23 @@
       </c>
     </row>
     <row r="160" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B160" s="5"/>
+      <c r="B160" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="C160" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E160" s="25">
-        <v>51</v>
-      </c>
-      <c r="F160" s="25">
-        <v>133.1</v>
-      </c>
-      <c r="G160" s="25" t="s">
-        <v>206</v>
+      <c r="E160" s="15">
+        <v>49</v>
+      </c>
+      <c r="F160" s="15">
+        <v>130</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y160" s="3" t="s">
         <v>13</v>
@@ -13951,21 +14078,23 @@
       </c>
     </row>
     <row r="161" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B161" s="2"/>
+      <c r="B161" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C161" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E161" s="24">
-        <v>48.1</v>
-      </c>
-      <c r="F161" s="24">
-        <v>136</v>
-      </c>
-      <c r="G161" s="24" t="s">
-        <v>206</v>
+      <c r="E161" s="14">
+        <v>46</v>
+      </c>
+      <c r="F161" s="14">
+        <v>134</v>
+      </c>
+      <c r="G161" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y161" t="s">
         <v>118</v>
@@ -13978,21 +14107,23 @@
       </c>
     </row>
     <row r="162" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B162" s="5"/>
+      <c r="B162" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="C162" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E162" s="25">
-        <v>47</v>
-      </c>
-      <c r="F162" s="25">
-        <v>140</v>
-      </c>
-      <c r="G162" s="25" t="s">
-        <v>206</v>
+      <c r="E162" s="15">
+        <v>44</v>
+      </c>
+      <c r="F162" s="15">
+        <v>138</v>
+      </c>
+      <c r="G162" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y162" s="3" t="s">
         <v>14</v>
@@ -14005,21 +14136,23 @@
       </c>
     </row>
     <row r="163" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B163" s="2"/>
+      <c r="B163" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C163" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E163" s="24">
-        <v>48.1</v>
-      </c>
-      <c r="F163" s="24">
-        <v>144</v>
-      </c>
-      <c r="G163" s="24" t="s">
-        <v>206</v>
+      <c r="E163" s="14">
+        <v>46</v>
+      </c>
+      <c r="F163" s="14">
+        <v>142</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y163" t="s">
         <v>14</v>
@@ -14032,21 +14165,23 @@
       </c>
     </row>
     <row r="164" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B164" s="5"/>
+      <c r="B164" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="C164" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E164" s="25">
-        <v>51</v>
-      </c>
-      <c r="F164" s="25">
-        <v>146.9</v>
-      </c>
-      <c r="G164" s="25" t="s">
-        <v>206</v>
+      <c r="E164" s="15">
+        <v>49</v>
+      </c>
+      <c r="F164" s="15">
+        <v>146</v>
+      </c>
+      <c r="G164" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y164" s="3" t="s">
         <v>121</v>
@@ -14059,21 +14194,23 @@
       </c>
     </row>
     <row r="165" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B165" s="2"/>
+      <c r="B165" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C165" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E165" s="24">
-        <v>55</v>
-      </c>
-      <c r="F165" s="24">
-        <v>148</v>
-      </c>
-      <c r="G165" s="24" t="s">
-        <v>206</v>
+        <v>229</v>
+      </c>
+      <c r="E165" s="14">
+        <v>54</v>
+      </c>
+      <c r="F165" s="14">
+        <v>147</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y165" t="s">
         <v>122</v>
@@ -14086,21 +14223,23 @@
       </c>
     </row>
     <row r="166" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B166" s="3"/>
+      <c r="B166" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="C166" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E166" s="25">
-        <v>51</v>
-      </c>
-      <c r="F166" s="26">
-        <v>126.9</v>
-      </c>
-      <c r="G166" s="26" t="s">
-        <v>206</v>
+      <c r="E166" s="15">
+        <v>49</v>
+      </c>
+      <c r="F166" s="16">
+        <v>123</v>
+      </c>
+      <c r="G166" s="16" t="s">
+        <v>205</v>
       </c>
       <c r="Y166" s="3" t="s">
         <v>124</v>
@@ -14113,21 +14252,23 @@
       </c>
     </row>
     <row r="167" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B167" s="2"/>
+      <c r="B167" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C167" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E167" s="24">
-        <v>48.1</v>
-      </c>
-      <c r="F167" s="24">
-        <v>124</v>
-      </c>
-      <c r="G167" s="24" t="s">
-        <v>206</v>
+      <c r="E167" s="14">
+        <v>46</v>
+      </c>
+      <c r="F167" s="14">
+        <v>119</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y167" t="s">
         <v>125</v>
@@ -14140,21 +14281,23 @@
       </c>
     </row>
     <row r="168" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B168" s="5"/>
+      <c r="B168" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="C168" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E168" s="25">
-        <v>47</v>
-      </c>
-      <c r="F168" s="25">
-        <v>120</v>
-      </c>
-      <c r="G168" s="25" t="s">
-        <v>206</v>
+      <c r="E168" s="15">
+        <v>44</v>
+      </c>
+      <c r="F168" s="15">
+        <v>115</v>
+      </c>
+      <c r="G168" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y168" s="3" t="s">
         <v>126</v>
@@ -14167,48 +14310,52 @@
       </c>
     </row>
     <row r="169" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B169" s="2"/>
+      <c r="B169" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C169" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E169" s="24">
-        <v>48.1</v>
-      </c>
-      <c r="F169" s="24">
-        <v>116</v>
-      </c>
-      <c r="G169" s="24" t="s">
-        <v>206</v>
+      <c r="E169" s="14">
+        <v>46</v>
+      </c>
+      <c r="F169" s="27">
+        <v>111</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y169" t="s">
         <v>127</v>
       </c>
       <c r="Z169" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA169">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B170" s="5"/>
+      <c r="B170" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="C170" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E170" s="25">
-        <v>51</v>
-      </c>
-      <c r="F170" s="25">
-        <v>113.1</v>
-      </c>
-      <c r="G170" s="25" t="s">
-        <v>206</v>
+        <v>219</v>
+      </c>
+      <c r="E170" s="15">
+        <v>49</v>
+      </c>
+      <c r="F170" s="15">
+        <v>107</v>
+      </c>
+      <c r="G170" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="Y170" s="3" t="s">
         <v>127</v>
@@ -14221,21 +14368,23 @@
       </c>
     </row>
     <row r="171" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B171" s="2"/>
+      <c r="B171" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C171" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E171" s="24">
-        <v>55</v>
-      </c>
-      <c r="F171" s="24">
-        <v>112</v>
-      </c>
-      <c r="G171" s="24" t="s">
-        <v>206</v>
+        <v>220</v>
+      </c>
+      <c r="E171" s="14">
+        <v>54</v>
+      </c>
+      <c r="F171" s="14">
+        <v>106</v>
+      </c>
+      <c r="G171" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="Y171" t="s">
         <v>128</v>
@@ -14250,15 +14399,15 @@
     <row r="172" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B172" s="5"/>
       <c r="C172" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E172" s="25"/>
-      <c r="F172" s="25"/>
-      <c r="G172" s="25" t="s">
-        <v>135</v>
+        <v>233</v>
+      </c>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="Y172" s="3" t="s">
         <v>127</v>
@@ -14272,21 +14421,21 @@
     </row>
     <row r="173" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E173" s="27"/>
-      <c r="F173" s="27"/>
-      <c r="G173" s="27" t="s">
-        <v>135</v>
+        <v>234</v>
+      </c>
+      <c r="E173" s="17"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="Y173" t="s">
         <v>130</v>
       </c>
       <c r="Z173" t="s">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="AA173">
         <v>0</v>
@@ -14295,21 +14444,21 @@
     <row r="174" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B174" s="3"/>
       <c r="C174" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E174" s="26"/>
-      <c r="F174" s="26"/>
-      <c r="G174" s="26" t="s">
-        <v>135</v>
+        <v>235</v>
+      </c>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="Y174" s="3" t="s">
         <v>130</v>
       </c>
       <c r="Z174" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA174" s="3">
         <v>0</v>
@@ -14317,21 +14466,21 @@
     </row>
     <row r="175" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C175" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E175" s="27"/>
-      <c r="F175" s="27"/>
-      <c r="G175" s="27" t="s">
-        <v>135</v>
+        <v>239</v>
+      </c>
+      <c r="E175" s="17"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="Y175" t="s">
         <v>130</v>
       </c>
       <c r="Z175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA175">
         <v>0</v>
@@ -14340,15 +14489,15 @@
     <row r="176" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B176" s="3"/>
       <c r="C176" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E176" s="26"/>
-      <c r="F176" s="26"/>
-      <c r="G176" s="26" t="s">
-        <v>135</v>
+        <v>240</v>
+      </c>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -14361,13 +14510,16 @@
     <mergeCell ref="Y24:Z24"/>
   </mergeCells>
   <conditionalFormatting sqref="Y42:Z44">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF(ISBLANK(AC35),FALSE,NOT(OR(EXACT(AC35,#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:B176" xr:uid="{33AC95D3-3925-A842-96E6-3B153079B9E6}">
       <formula1>$C$8:$C$19</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y28:Z175" xr:uid="{E17EE40A-D819-2548-8C3B-004521AB6CAB}">
+      <formula1>$D$28:$D$176</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
